--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_7_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_7_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2042228.050167574</v>
+        <v>2039597.65736584</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2668988.932318828</v>
+        <v>2668988.932318824</v>
       </c>
     </row>
     <row r="8">
@@ -664,22 +664,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>20.03456014188578</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>220.3846559142665</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>87.4144422354058</v>
       </c>
       <c r="I3" t="n">
         <v>48.89338144820752</v>
@@ -822,16 +822,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>53.03638470914613</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>61.24043455025507</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,16 +904,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>261.4423976870899</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>12.725494085322</v>
+        <v>285.2277501896804</v>
       </c>
       <c r="G5" t="n">
         <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -946,7 +946,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>35.3542406857003</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,19 +1104,19 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>193.792129802327</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
@@ -1147,10 +1147,10 @@
         <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>172.7113106740457</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>166.5924984579449</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>22.96189723698673</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>162.5303437479549</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>408.5363925405122</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>315.7755108463297</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>6.535560979117097</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>153.5746362079504</v>
@@ -1429,13 +1429,13 @@
         <v>253.1556234364382</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>260.0905225378979</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>354.7457691888887</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>7.242832149011029</v>
+        <v>7.24283214901104</v>
       </c>
       <c r="S12" t="n">
         <v>128.6645579096421</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C13" t="n">
-        <v>134.6509717763843</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,13 +1545,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>44.80162187947575</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>14.38465326559115</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>112.6835919225485</v>
       </c>
       <c r="S13" t="n">
-        <v>196.9204403800745</v>
+        <v>196.9204403800746</v>
       </c>
       <c r="T13" t="n">
         <v>232.4136522254854</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5722990436504</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
         <v>381.5867174954989</v>
@@ -1621,13 +1621,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>408.5363925405122</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>315.7755108463297</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>117.8804585990615</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>0.5755858343629415</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.0998921310412</v>
       </c>
       <c r="U14" t="n">
         <v>253.1556234364382</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>123.6816379999954</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
         <v>392.5258019886049</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>7.242832149011029</v>
+        <v>7.24283214901104</v>
       </c>
       <c r="S15" t="n">
-        <v>128.6645579096421</v>
+        <v>128.6645579096422</v>
       </c>
       <c r="T15" t="n">
         <v>174.1470195830784</v>
@@ -1767,25 +1767,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>166.3495920856427</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>151.9506836387004</v>
+        <v>5.058816123837284</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>125.0897031029503</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,19 +1821,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5722990436504</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>211.3118628699047</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>389.2437464820987</v>
@@ -1861,10 +1861,10 @@
         <v>408.5363925405122</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>315.7755108463297</v>
       </c>
       <c r="I17" t="n">
-        <v>117.8804585990615</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,25 +1891,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>6.535560979117097</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>153.5746362079504</v>
       </c>
       <c r="T17" t="n">
-        <v>219.0998921310412</v>
+        <v>22.70300501455935</v>
       </c>
       <c r="U17" t="n">
-        <v>253.1556234364382</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>69.56100268073834</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
         <v>392.5258019886049</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>7.242832149011029</v>
+        <v>7.24283214901104</v>
       </c>
       <c r="S18" t="n">
-        <v>128.6645579096421</v>
+        <v>128.6645579096422</v>
       </c>
       <c r="T18" t="n">
         <v>174.1470195830784</v>
@@ -2001,31 +2001,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>168.5030667546707</v>
+        <v>72.77528351113408</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.3495920856427</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>151.9506836387004</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>125.0897031029503</v>
       </c>
       <c r="J19" t="n">
-        <v>14.38465326559115</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>112.6835919225485</v>
       </c>
       <c r="S19" t="n">
-        <v>196.9204403800745</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>249.0203387331738</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
         <v>381.5867174954989</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>11.66933124204504</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,19 +2128,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>6.535560979117093</v>
+        <v>6.535560979117115</v>
       </c>
       <c r="S20" t="n">
-        <v>153.5746362079504</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>253.1556234364382</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>29.1558444043354</v>
       </c>
       <c r="W20" t="n">
         <v>367.2890446813954</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>7.242832149011029</v>
+        <v>7.24283214901104</v>
       </c>
       <c r="S21" t="n">
         <v>128.6645579096421</v>
@@ -2244,16 +2244,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>33.87893464137854</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.3495920856427</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2295,16 +2295,16 @@
         <v>232.4136522254854</v>
       </c>
       <c r="U22" t="n">
-        <v>25.92899889276677</v>
+        <v>282.5722990436504</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2323,7 +2323,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>398.5576896346209</v>
@@ -2335,7 +2335,7 @@
         <v>408.5363925405122</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>315.7755108463297</v>
       </c>
       <c r="I23" t="n">
         <v>117.8804585990615</v>
@@ -2365,25 +2365,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>6.535560979117108</v>
+        <v>6.535560979117111</v>
       </c>
       <c r="S23" t="n">
         <v>153.5746362079504</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>190.801000927888</v>
       </c>
       <c r="U23" t="n">
-        <v>171.8621320914763</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
         <v>392.5258019886049</v>
@@ -2478,16 +2478,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>152.9785225835677</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.4056775888044</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2535,10 +2535,10 @@
         <v>282.5722990436504</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2563,13 +2563,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>408.5363925405122</v>
       </c>
       <c r="H26" t="n">
         <v>315.7755108463297</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>153.5746362079504</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>219.0998921310412</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>253.1556234364382</v>
+        <v>134.0772770312754</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>293.7056269254304</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8486894581709</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>40.29493066101971</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>112.6835919225485</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>282.5722990436504</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -2797,7 +2797,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>38.06803356084223</v>
       </c>
       <c r="E29" t="n">
         <v>398.5576896346209</v>
@@ -2809,10 +2809,10 @@
         <v>408.5363925405122</v>
       </c>
       <c r="H29" t="n">
-        <v>315.7755108463297</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>117.8804585990615</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>6.535560979117108</v>
+        <v>6.535560979117111</v>
       </c>
       <c r="S29" t="n">
         <v>153.5746362079504</v>
@@ -2848,7 +2848,7 @@
         <v>219.0998921310412</v>
       </c>
       <c r="U29" t="n">
-        <v>0.9092276248312009</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="30">
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>183.3559385043883</v>
+        <v>161.9694044608154</v>
       </c>
       <c r="C31" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>196.9204403800746</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>232.4136522254854</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3012,10 +3012,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>211.8615838695506</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>220.8809405715231</v>
@@ -3031,7 +3031,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>136.9973506704911</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
         <v>381.5867174954989</v>
@@ -3043,13 +3043,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>408.5363925405122</v>
+        <v>105.5420567204481</v>
       </c>
       <c r="H32" t="n">
-        <v>315.7755108463297</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>117.8804585990615</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>6.535560979117108</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>153.5746362079504</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.0998921310412</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>253.1556234364382</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="33">
@@ -3192,25 +3192,25 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.3495920856427</v>
+        <v>153.6089949443155</v>
       </c>
       <c r="H34" t="n">
-        <v>151.9506836387004</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>99.24348489096691</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>14.38465326559116</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3234,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>112.6835919225485</v>
       </c>
       <c r="S34" t="n">
-        <v>196.9204403800746</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5722990436504</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3274,7 +3274,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>6.941115270847135</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>412.725494085322</v>
@@ -3286,7 +3286,7 @@
         <v>315.7755108463297</v>
       </c>
       <c r="I35" t="n">
-        <v>117.8804585990615</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,22 +3313,22 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>6.535560979117108</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>153.5746362079504</v>
       </c>
       <c r="T35" t="n">
-        <v>219.0998921310412</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>253.1556234364382</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>125.9047070215075</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3432,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.3495920856427</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>151.9506836387004</v>
       </c>
       <c r="I37" t="n">
-        <v>0.7723239506205436</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>196.9204403800746</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>10.69285405275354</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3489,10 +3489,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>206.8406367523901</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>89.58156739590827</v>
       </c>
       <c r="E38" t="n">
         <v>398.5576896346209</v>
@@ -3517,13 +3517,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>408.5363925405122</v>
       </c>
       <c r="H38" t="n">
         <v>315.7755108463297</v>
       </c>
       <c r="I38" t="n">
-        <v>117.8804585990615</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>6.535560979117101</v>
+        <v>6.535560979117111</v>
       </c>
       <c r="S38" t="n">
         <v>153.5746362079504</v>
@@ -3559,13 +3559,13 @@
         <v>219.0998921310412</v>
       </c>
       <c r="U38" t="n">
-        <v>253.1556234364382</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>385.5580790162737</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>7.242832149011033</v>
+        <v>7.242832149011036</v>
       </c>
       <c r="S39" t="n">
         <v>128.6645579096421</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>165.0910645598319</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>34.55306787201719</v>
+        <v>166.3495920856427</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>151.9506836387004</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>125.0897031029503</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5722990436504</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="41">
@@ -3745,22 +3745,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>408.5363925405122</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>139.6293940417688</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>117.8804585990615</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>6.535560979117101</v>
       </c>
       <c r="S41" t="n">
-        <v>153.5746362079504</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>219.0998921310412</v>
       </c>
       <c r="U41" t="n">
-        <v>253.1556234364382</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>338.6857412035168</v>
@@ -3808,7 +3808,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>392.5258019886049</v>
+        <v>272.4324055988944</v>
       </c>
     </row>
     <row r="42">
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.3495920856427</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>45.51199178390782</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>232.4136522254854</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>282.5722990436504</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>145.872965934842</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3979,25 +3979,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>408.5363925405122</v>
       </c>
       <c r="H44" t="n">
         <v>315.7755108463297</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>117.8804585990615</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,22 +4024,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>6.535560979117101</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>153.5746362079504</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.0998921310412</v>
       </c>
       <c r="U44" t="n">
         <v>253.1556234364382</v>
       </c>
       <c r="V44" t="n">
-        <v>264.5404101232952</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>148.2419515848522</v>
       </c>
       <c r="X44" t="n">
         <v>385.5580790162737</v>
@@ -4134,31 +4134,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>70.8503157080833</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>76.47759893315479</v>
       </c>
       <c r="H46" t="n">
         <v>151.9506836387004</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>125.0897031029503</v>
       </c>
       <c r="J46" t="n">
-        <v>14.38465326559116</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>112.6835919225485</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>196.9204403800746</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>232.4136522254854</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5722990436504</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1576.02944075707</v>
+        <v>1418.540481295874</v>
       </c>
       <c r="C2" t="n">
-        <v>1182.85393926</v>
+        <v>1025.364979798805</v>
       </c>
       <c r="D2" t="n">
-        <v>797.412810476668</v>
+        <v>1025.364979798805</v>
       </c>
       <c r="E2" t="n">
-        <v>797.412810476668</v>
+        <v>622.7814549153493</v>
       </c>
       <c r="F2" t="n">
-        <v>784.5587760470498</v>
+        <v>205.887016445327</v>
       </c>
       <c r="G2" t="n">
-        <v>371.396020535053</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H2" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I2" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J2" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K2" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L2" t="n">
-        <v>864.7645682749193</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M2" t="n">
-        <v>864.7645682749193</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N2" t="n">
-        <v>1392.575851912381</v>
+        <v>1740.763344043903</v>
       </c>
       <c r="O2" t="n">
-        <v>1832.61545280471</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="P2" t="n">
         <v>2180.802944936232</v>
@@ -4354,28 +4354,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R2" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S2" t="n">
-        <v>2199.134950018231</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T2" t="n">
-        <v>2199.134950018231</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="U2" t="n">
-        <v>2199.134950018231</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="V2" t="n">
-        <v>1976.524186468467</v>
+        <v>1819.035227007271</v>
       </c>
       <c r="W2" t="n">
-        <v>1976.524186468467</v>
+        <v>1819.035227007271</v>
       </c>
       <c r="X2" t="n">
-        <v>1976.524186468467</v>
+        <v>1819.035227007271</v>
       </c>
       <c r="Y2" t="n">
-        <v>1976.524186468467</v>
+        <v>1819.035227007271</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415753</v>
       </c>
       <c r="C3" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016675</v>
       </c>
       <c r="D3" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231478</v>
       </c>
       <c r="E3" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340356</v>
       </c>
       <c r="F3" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171674</v>
       </c>
       <c r="G3" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890318</v>
       </c>
       <c r="H3" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I3" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J3" t="n">
-        <v>47.31297010154367</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K3" t="n">
-        <v>47.31297010154367</v>
+        <v>160.427952321271</v>
       </c>
       <c r="L3" t="n">
-        <v>530.879055999857</v>
+        <v>160.427952321271</v>
       </c>
       <c r="M3" t="n">
-        <v>1116.377061006459</v>
+        <v>623.6437572083089</v>
       </c>
       <c r="N3" t="n">
-        <v>1701.875066013061</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O3" t="n">
-        <v>1960.027136360783</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P3" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q3" t="n">
         <v>2365.64850507718</v>
@@ -4448,13 +4448,13 @@
         <v>1597.213828123731</v>
       </c>
       <c r="W3" t="n">
-        <v>1367.096582257017</v>
+        <v>1367.096582257018</v>
       </c>
       <c r="X3" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y3" t="n">
-        <v>998.4752876825364</v>
+        <v>998.4752876825366</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1517.773588302442</v>
+        <v>684.084884027408</v>
       </c>
       <c r="C4" t="n">
-        <v>1517.773588302442</v>
+        <v>684.084884027408</v>
       </c>
       <c r="D4" t="n">
-        <v>1517.773588302442</v>
+        <v>528.4517709299226</v>
       </c>
       <c r="E4" t="n">
-        <v>1464.201482535628</v>
+        <v>372.8929587891251</v>
       </c>
       <c r="F4" t="n">
-        <v>1464.201482535628</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="G4" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H4" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J4" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K4" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L4" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M4" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N4" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O4" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P4" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q4" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R4" t="n">
-        <v>2241.747515709757</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S4" t="n">
-        <v>2038.931431892307</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T4" t="n">
-        <v>1803.212380060541</v>
+        <v>684.084884027408</v>
       </c>
       <c r="U4" t="n">
-        <v>1517.773588302442</v>
+        <v>684.084884027408</v>
       </c>
       <c r="V4" t="n">
-        <v>1517.773588302442</v>
+        <v>684.084884027408</v>
       </c>
       <c r="W4" t="n">
-        <v>1517.773588302442</v>
+        <v>684.084884027408</v>
       </c>
       <c r="X4" t="n">
-        <v>1517.773588302442</v>
+        <v>684.084884027408</v>
       </c>
       <c r="Y4" t="n">
-        <v>1517.773588302442</v>
+        <v>684.084884027408</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>795.7927533307586</v>
+        <v>885.4648019395618</v>
       </c>
       <c r="C5" t="n">
-        <v>795.7927533307586</v>
+        <v>885.4648019395618</v>
       </c>
       <c r="D5" t="n">
-        <v>795.7927533307586</v>
+        <v>885.4648019395618</v>
       </c>
       <c r="E5" t="n">
-        <v>531.7095233437991</v>
+        <v>482.8812770561063</v>
       </c>
       <c r="F5" t="n">
-        <v>518.8554889141809</v>
+        <v>194.7724384806716</v>
       </c>
       <c r="G5" t="n">
-        <v>509.7331374425881</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H5" t="n">
         <v>185.6500870090788</v>
@@ -4573,16 +4573,16 @@
         <v>550.9450990378335</v>
       </c>
       <c r="L5" t="n">
-        <v>1044.265390756362</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="M5" t="n">
-        <v>1590.266290800943</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N5" t="n">
-        <v>2118.077574438405</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O5" t="n">
-        <v>2180.802944936232</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P5" t="n">
         <v>2180.802944936232</v>
@@ -4594,25 +4594,25 @@
         <v>2327.655591362702</v>
       </c>
       <c r="S5" t="n">
-        <v>2161.142036303753</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T5" t="n">
-        <v>2161.142036303753</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="U5" t="n">
-        <v>1905.389306738351</v>
+        <v>2071.902861797301</v>
       </c>
       <c r="V5" t="n">
-        <v>1563.28249744187</v>
+        <v>2071.902861797301</v>
       </c>
       <c r="W5" t="n">
-        <v>1192.283462410157</v>
+        <v>2071.902861797301</v>
       </c>
       <c r="X5" t="n">
-        <v>1192.283462410157</v>
+        <v>1682.450256730358</v>
       </c>
       <c r="Y5" t="n">
-        <v>795.7927533307586</v>
+        <v>1285.959547650959</v>
       </c>
     </row>
     <row r="6">
@@ -4646,13 +4646,13 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J6" t="n">
-        <v>54.70361680265978</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K6" t="n">
-        <v>374.4427628648862</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L6" t="n">
-        <v>858.0088487631995</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M6" t="n">
         <v>1443.506853769802</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>350.6125133984765</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="C7" t="n">
-        <v>180.4073954644657</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="D7" t="n">
-        <v>180.4073954644657</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="E7" t="n">
-        <v>180.4073954644657</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="F7" t="n">
-        <v>180.4073954644657</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="G7" t="n">
-        <v>180.4073954644657</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="H7" t="n">
-        <v>180.4073954644657</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="I7" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J7" t="n">
         <v>47.31297010154361</v>
@@ -4752,25 +4752,25 @@
         <v>824.8590032756731</v>
       </c>
       <c r="S7" t="n">
-        <v>622.0429194582225</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T7" t="n">
-        <v>386.3238676264566</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="U7" t="n">
-        <v>386.3238676264566</v>
+        <v>539.420211517574</v>
       </c>
       <c r="V7" t="n">
-        <v>386.3238676264566</v>
+        <v>273.4408663383982</v>
       </c>
       <c r="W7" t="n">
-        <v>386.3238676264566</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="X7" t="n">
-        <v>386.3238676264566</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="Y7" t="n">
-        <v>386.3238676264566</v>
+        <v>77.69124027544166</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1407.425903331219</v>
+        <v>1563.28249744187</v>
       </c>
       <c r="C8" t="n">
-        <v>1014.250401834149</v>
+        <v>1170.1069959448</v>
       </c>
       <c r="D8" t="n">
-        <v>1014.250401834149</v>
+        <v>784.6658671614682</v>
       </c>
       <c r="E8" t="n">
-        <v>611.6668769506939</v>
+        <v>382.0823422780127</v>
       </c>
       <c r="F8" t="n">
-        <v>598.8128425210757</v>
+        <v>369.2283078483945</v>
       </c>
       <c r="G8" t="n">
-        <v>185.6500870090788</v>
+        <v>360.1059563768018</v>
       </c>
       <c r="H8" t="n">
         <v>185.6500870090788</v>
@@ -4804,22 +4804,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>173.6308686433316</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>173.6308686433316</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L8" t="n">
-        <v>666.9511603618604</v>
+        <v>540.6332618200724</v>
       </c>
       <c r="M8" t="n">
-        <v>1212.952060406441</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N8" t="n">
-        <v>1740.763344043903</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O8" t="n">
-        <v>2180.802944936232</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
         <v>2180.802944936232</v>
@@ -4828,28 +4828,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="U8" t="n">
-        <v>2365.64850507718</v>
+        <v>1905.389306738351</v>
       </c>
       <c r="V8" t="n">
-        <v>2197.373254109559</v>
+        <v>1563.28249744187</v>
       </c>
       <c r="W8" t="n">
-        <v>2197.373254109559</v>
+        <v>1563.28249744187</v>
       </c>
       <c r="X8" t="n">
-        <v>1807.920649042616</v>
+        <v>1563.28249744187</v>
       </c>
       <c r="Y8" t="n">
-        <v>1807.920649042616</v>
+        <v>1563.28249744187</v>
       </c>
     </row>
     <row r="9">
@@ -4892,7 +4892,7 @@
         <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>963.7331842818107</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N9" t="n">
         <v>1209.141762214911</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77.69124027544166</v>
+        <v>233.1697913139477</v>
       </c>
       <c r="C10" t="n">
-        <v>77.69124027544166</v>
+        <v>233.1697913139477</v>
       </c>
       <c r="D10" t="n">
-        <v>77.69124027544166</v>
+        <v>233.1697913139477</v>
       </c>
       <c r="E10" t="n">
-        <v>77.69124027544166</v>
+        <v>233.1697913139477</v>
       </c>
       <c r="F10" t="n">
-        <v>77.69124027544166</v>
+        <v>233.1697913139477</v>
       </c>
       <c r="G10" t="n">
-        <v>77.69124027544166</v>
+        <v>233.1697913139477</v>
       </c>
       <c r="H10" t="n">
         <v>77.69124027544166</v>
@@ -4986,28 +4986,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>386.3238676264566</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>100.8850758683575</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V10" t="n">
-        <v>77.69124027544166</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="W10" t="n">
-        <v>77.69124027544166</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="X10" t="n">
-        <v>77.69124027544166</v>
+        <v>233.1697913139477</v>
       </c>
       <c r="Y10" t="n">
-        <v>77.69124027544166</v>
+        <v>233.1697913139477</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1986.384394197403</v>
+        <v>1573.721371429209</v>
       </c>
       <c r="C11" t="n">
-        <v>1593.208892700334</v>
+        <v>1180.54586993214</v>
       </c>
       <c r="D11" t="n">
-        <v>1207.767763917002</v>
+        <v>795.1047411488073</v>
       </c>
       <c r="E11" t="n">
-        <v>805.184239033546</v>
+        <v>392.5212162653519</v>
       </c>
       <c r="F11" t="n">
-        <v>805.184239033546</v>
+        <v>392.5212162653519</v>
       </c>
       <c r="G11" t="n">
         <v>392.5212162653519</v>
@@ -5041,7 +5041,7 @@
         <v>73.55605379431174</v>
       </c>
       <c r="J11" t="n">
-        <v>259.7759762473725</v>
+        <v>259.7759762473726</v>
       </c>
       <c r="K11" t="n">
         <v>681.0612104920358</v>
@@ -5053,10 +5053,10 @@
         <v>1883.677129957883</v>
       </c>
       <c r="N11" t="n">
-        <v>2498.882522004027</v>
+        <v>2498.882522004026</v>
       </c>
       <c r="O11" t="n">
-        <v>3021.445901261525</v>
+        <v>3021.445901261524</v>
       </c>
       <c r="P11" t="n">
         <v>3440.065528972629</v>
@@ -5065,28 +5065,28 @@
         <v>3677.802689715587</v>
       </c>
       <c r="R11" t="n">
-        <v>3671.201112969004</v>
+        <v>3677.802689715587</v>
       </c>
       <c r="S11" t="n">
-        <v>3516.075217809458</v>
+        <v>3522.676794556041</v>
       </c>
       <c r="T11" t="n">
-        <v>3294.762195454871</v>
+        <v>3301.363772201454</v>
       </c>
       <c r="U11" t="n">
-        <v>3039.049444508973</v>
+        <v>3045.651021255556</v>
       </c>
       <c r="V11" t="n">
-        <v>3039.049444508973</v>
+        <v>2703.544211959075</v>
       </c>
       <c r="W11" t="n">
-        <v>2776.331744975743</v>
+        <v>2332.545176927362</v>
       </c>
       <c r="X11" t="n">
-        <v>2386.8791399088</v>
+        <v>1974.216117140606</v>
       </c>
       <c r="Y11" t="n">
-        <v>2386.8791399088</v>
+        <v>1974.216117140606</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2181.495988346059</v>
+        <v>860.8664559360877</v>
       </c>
       <c r="C12" t="n">
-        <v>2030.841757906151</v>
+        <v>710.2122254961799</v>
       </c>
       <c r="D12" t="n">
-        <v>1900.752790527632</v>
+        <v>580.1232581176603</v>
       </c>
       <c r="E12" t="n">
-        <v>1764.306299638519</v>
+        <v>443.676767228548</v>
       </c>
       <c r="F12" t="n">
-        <v>1639.874493521651</v>
+        <v>319.2449611116799</v>
       </c>
       <c r="G12" t="n">
-        <v>1520.082056183749</v>
+        <v>199.452523773778</v>
       </c>
       <c r="H12" t="n">
-        <v>1434.366973379501</v>
+        <v>113.7374409695304</v>
       </c>
       <c r="I12" t="n">
-        <v>1394.185586204283</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="J12" t="n">
-        <v>1394.185586204283</v>
+        <v>211.4299322985498</v>
       </c>
       <c r="K12" t="n">
-        <v>1394.185586204283</v>
+        <v>573.4859756499842</v>
       </c>
       <c r="L12" t="n">
-        <v>1934.651962737418</v>
+        <v>1113.952352183119</v>
       </c>
       <c r="M12" t="n">
-        <v>1934.651962737418</v>
+        <v>1113.952352183119</v>
       </c>
       <c r="N12" t="n">
-        <v>2643.268453422326</v>
+        <v>1113.952352183119</v>
       </c>
       <c r="O12" t="n">
-        <v>3222.139408997192</v>
+        <v>1692.823307757985</v>
       </c>
       <c r="P12" t="n">
-        <v>3677.802689715587</v>
+        <v>2148.486588476379</v>
       </c>
       <c r="Q12" t="n">
-        <v>3677.802689715587</v>
+        <v>2357.173157305615</v>
       </c>
       <c r="R12" t="n">
-        <v>3670.486697645879</v>
+        <v>2349.857165235907</v>
       </c>
       <c r="S12" t="n">
-        <v>3540.522497737149</v>
+        <v>2219.892965327178</v>
       </c>
       <c r="T12" t="n">
-        <v>3364.616417350202</v>
+        <v>2043.986884940229</v>
       </c>
       <c r="U12" t="n">
-        <v>3154.570864857148</v>
+        <v>1833.941332447176</v>
       </c>
       <c r="V12" t="n">
-        <v>2932.030863228215</v>
+        <v>1611.401330818243</v>
       </c>
       <c r="W12" t="n">
-        <v>2701.913617361502</v>
+        <v>1381.28408495153</v>
       </c>
       <c r="X12" t="n">
-        <v>2512.606539711513</v>
+        <v>1191.977007301542</v>
       </c>
       <c r="Y12" t="n">
-        <v>2333.29232278702</v>
+        <v>1012.662790377049</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>224.0970891902465</v>
+        <v>444.574147383742</v>
       </c>
       <c r="C13" t="n">
-        <v>88.08600658783816</v>
+        <v>274.3690294497312</v>
       </c>
       <c r="D13" t="n">
-        <v>88.08600658783816</v>
+        <v>274.3690294497312</v>
       </c>
       <c r="E13" t="n">
-        <v>88.08600658783816</v>
+        <v>118.8102173089337</v>
       </c>
       <c r="F13" t="n">
-        <v>88.08600658783816</v>
+        <v>118.8102173089337</v>
       </c>
       <c r="G13" t="n">
-        <v>88.08600658783816</v>
+        <v>118.8102173089337</v>
       </c>
       <c r="H13" t="n">
-        <v>88.08600658783816</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="I13" t="n">
-        <v>88.08600658783816</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="J13" t="n">
         <v>73.55605379431174</v>
@@ -5205,13 +5205,13 @@
         <v>180.916480058984</v>
       </c>
       <c r="L13" t="n">
-        <v>377.7078248483129</v>
+        <v>377.7078248483128</v>
       </c>
       <c r="M13" t="n">
         <v>598.4387002306314</v>
       </c>
       <c r="N13" t="n">
-        <v>815.2487417978014</v>
+        <v>815.2487417978012</v>
       </c>
       <c r="O13" t="n">
         <v>1009.007396819615</v>
@@ -5223,28 +5223,28 @@
         <v>1177.274776709496</v>
       </c>
       <c r="R13" t="n">
-        <v>1177.274776709496</v>
+        <v>1063.45296668672</v>
       </c>
       <c r="S13" t="n">
-        <v>978.3652409720471</v>
+        <v>864.5434309492709</v>
       </c>
       <c r="T13" t="n">
-        <v>743.6039760978194</v>
+        <v>629.7821660750433</v>
       </c>
       <c r="U13" t="n">
-        <v>458.1774114072634</v>
+        <v>629.7821660750433</v>
       </c>
       <c r="V13" t="n">
-        <v>458.1774114072634</v>
+        <v>629.7821660750433</v>
       </c>
       <c r="W13" t="n">
-        <v>458.1774114072634</v>
+        <v>629.7821660750433</v>
       </c>
       <c r="X13" t="n">
-        <v>224.0970891902465</v>
+        <v>629.7821660750433</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0970891902465</v>
+        <v>629.7821660750433</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2129.174501472438</v>
+        <v>1671.650647428191</v>
       </c>
       <c r="C14" t="n">
-        <v>2129.174501472438</v>
+        <v>1278.475145931122</v>
       </c>
       <c r="D14" t="n">
-        <v>1743.733372689106</v>
+        <v>893.0340171477894</v>
       </c>
       <c r="E14" t="n">
-        <v>1341.149847805651</v>
+        <v>490.450492264334</v>
       </c>
       <c r="F14" t="n">
-        <v>924.2554093356284</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="G14" t="n">
-        <v>511.5923865674342</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="H14" t="n">
-        <v>192.6272240963941</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="I14" t="n">
         <v>73.55605379431174</v>
@@ -5281,7 +5281,7 @@
         <v>259.7759762473725</v>
       </c>
       <c r="K14" t="n">
-        <v>681.0612104920358</v>
+        <v>681.0612104920356</v>
       </c>
       <c r="L14" t="n">
         <v>1251.67373183635</v>
@@ -5290,40 +5290,40 @@
         <v>1883.677129957883</v>
       </c>
       <c r="N14" t="n">
-        <v>2498.882522004027</v>
+        <v>2498.882522004026</v>
       </c>
       <c r="O14" t="n">
-        <v>3021.445901261525</v>
+        <v>3021.445901261524</v>
       </c>
       <c r="P14" t="n">
         <v>3440.065528972629</v>
       </c>
       <c r="Q14" t="n">
-        <v>3677.802689715587</v>
+        <v>3677.802689715586</v>
       </c>
       <c r="R14" t="n">
-        <v>3677.802689715587</v>
+        <v>3677.802689715586</v>
       </c>
       <c r="S14" t="n">
-        <v>3677.802689715587</v>
+        <v>3677.221289882897</v>
       </c>
       <c r="T14" t="n">
-        <v>3677.802689715587</v>
+        <v>3455.908267528309</v>
       </c>
       <c r="U14" t="n">
-        <v>3422.08993876969</v>
+        <v>3200.195516582412</v>
       </c>
       <c r="V14" t="n">
-        <v>3422.08993876969</v>
+        <v>2858.08870728593</v>
       </c>
       <c r="W14" t="n">
-        <v>3051.090903737977</v>
+        <v>2858.08870728593</v>
       </c>
       <c r="X14" t="n">
-        <v>2926.159956263234</v>
+        <v>2468.636102218987</v>
       </c>
       <c r="Y14" t="n">
-        <v>2529.669247183835</v>
+        <v>2072.145393139588</v>
       </c>
     </row>
     <row r="15">
@@ -5345,10 +5345,10 @@
         <v>443.676767228548</v>
       </c>
       <c r="F15" t="n">
-        <v>319.2449611116798</v>
+        <v>319.2449611116799</v>
       </c>
       <c r="G15" t="n">
-        <v>199.4525237737779</v>
+        <v>199.452523773778</v>
       </c>
       <c r="H15" t="n">
         <v>113.7374409695304</v>
@@ -5363,16 +5363,16 @@
         <v>73.55605379431174</v>
       </c>
       <c r="L15" t="n">
-        <v>598.7035852052031</v>
+        <v>360.1952609394043</v>
       </c>
       <c r="M15" t="n">
-        <v>598.7035852052031</v>
+        <v>1054.366865923598</v>
       </c>
       <c r="N15" t="n">
-        <v>1322.638921012355</v>
+        <v>1778.30220173075</v>
       </c>
       <c r="O15" t="n">
-        <v>1901.50987658722</v>
+        <v>2357.173157305615</v>
       </c>
       <c r="P15" t="n">
         <v>2357.173157305615</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>395.0714838189008</v>
+        <v>688.1833703469637</v>
       </c>
       <c r="C16" t="n">
-        <v>395.0714838189008</v>
+        <v>517.9782524129529</v>
       </c>
       <c r="D16" t="n">
-        <v>395.0714838189008</v>
+        <v>362.3451393154676</v>
       </c>
       <c r="E16" t="n">
-        <v>395.0714838189008</v>
+        <v>362.3451393154676</v>
       </c>
       <c r="F16" t="n">
-        <v>395.0714838189008</v>
+        <v>205.0192045284406</v>
       </c>
       <c r="G16" t="n">
-        <v>227.0415928233021</v>
+        <v>205.0192045284406</v>
       </c>
       <c r="H16" t="n">
-        <v>73.55605379431174</v>
+        <v>199.9092892518373</v>
       </c>
       <c r="I16" t="n">
         <v>73.55605379431174</v>
@@ -5442,13 +5442,13 @@
         <v>180.916480058984</v>
       </c>
       <c r="L16" t="n">
-        <v>377.7078248483129</v>
+        <v>377.7078248483128</v>
       </c>
       <c r="M16" t="n">
         <v>598.4387002306314</v>
       </c>
       <c r="N16" t="n">
-        <v>815.2487417978014</v>
+        <v>815.2487417978012</v>
       </c>
       <c r="O16" t="n">
         <v>1009.007396819615</v>
@@ -5469,19 +5469,19 @@
         <v>1177.274776709496</v>
       </c>
       <c r="U16" t="n">
-        <v>891.8482120189401</v>
+        <v>1177.274776709496</v>
       </c>
       <c r="V16" t="n">
-        <v>678.4018858877232</v>
+        <v>911.2954315303203</v>
       </c>
       <c r="W16" t="n">
-        <v>395.0714838189008</v>
+        <v>911.2954315303203</v>
       </c>
       <c r="X16" t="n">
-        <v>395.0714838189008</v>
+        <v>911.2954315303203</v>
       </c>
       <c r="Y16" t="n">
-        <v>395.0714838189008</v>
+        <v>688.1833703469637</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1800.801315615012</v>
+        <v>2000.69530778397</v>
       </c>
       <c r="C17" t="n">
-        <v>1407.625814117943</v>
+        <v>1607.5198062869</v>
       </c>
       <c r="D17" t="n">
-        <v>1022.18468533461</v>
+        <v>1222.078677503568</v>
       </c>
       <c r="E17" t="n">
-        <v>1022.18468533461</v>
+        <v>1222.078677503568</v>
       </c>
       <c r="F17" t="n">
-        <v>605.2902468645882</v>
+        <v>805.184239033546</v>
       </c>
       <c r="G17" t="n">
-        <v>192.6272240963941</v>
+        <v>392.5212162653519</v>
       </c>
       <c r="H17" t="n">
-        <v>192.6272240963941</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="I17" t="n">
         <v>73.55605379431174</v>
       </c>
       <c r="J17" t="n">
-        <v>259.7759762473726</v>
+        <v>259.7759762473725</v>
       </c>
       <c r="K17" t="n">
-        <v>681.0612104920358</v>
+        <v>681.0612104920356</v>
       </c>
       <c r="L17" t="n">
         <v>1251.67373183635</v>
@@ -5527,7 +5527,7 @@
         <v>1883.677129957883</v>
       </c>
       <c r="N17" t="n">
-        <v>2498.882522004026</v>
+        <v>2498.882522004027</v>
       </c>
       <c r="O17" t="n">
         <v>3021.445901261525</v>
@@ -5539,28 +5539,28 @@
         <v>3677.802689715587</v>
       </c>
       <c r="R17" t="n">
-        <v>3671.201112969004</v>
+        <v>3677.802689715587</v>
       </c>
       <c r="S17" t="n">
-        <v>3516.075217809458</v>
+        <v>3522.676794556041</v>
       </c>
       <c r="T17" t="n">
-        <v>3294.762195454871</v>
+        <v>3499.744466258506</v>
       </c>
       <c r="U17" t="n">
-        <v>3039.049444508973</v>
+        <v>3499.744466258506</v>
       </c>
       <c r="V17" t="n">
-        <v>2968.785805437521</v>
+        <v>3157.637656962025</v>
       </c>
       <c r="W17" t="n">
-        <v>2597.786770405808</v>
+        <v>2786.638621930312</v>
       </c>
       <c r="X17" t="n">
-        <v>2597.786770405808</v>
+        <v>2397.186016863369</v>
       </c>
       <c r="Y17" t="n">
-        <v>2201.296061326409</v>
+        <v>2000.69530778397</v>
       </c>
     </row>
     <row r="18">
@@ -5582,10 +5582,10 @@
         <v>443.676767228548</v>
       </c>
       <c r="F18" t="n">
-        <v>319.2449611116798</v>
+        <v>319.2449611116799</v>
       </c>
       <c r="G18" t="n">
-        <v>199.4525237737779</v>
+        <v>199.452523773778</v>
       </c>
       <c r="H18" t="n">
         <v>113.7374409695304</v>
@@ -5597,22 +5597,22 @@
         <v>73.55605379431174</v>
       </c>
       <c r="K18" t="n">
-        <v>73.55605379431174</v>
+        <v>435.6120971457461</v>
       </c>
       <c r="L18" t="n">
-        <v>73.55605379431174</v>
+        <v>976.0784736788813</v>
       </c>
       <c r="M18" t="n">
-        <v>767.7276587785058</v>
+        <v>976.0784736788813</v>
       </c>
       <c r="N18" t="n">
-        <v>1491.662994585658</v>
+        <v>1054.822136524713</v>
       </c>
       <c r="O18" t="n">
-        <v>1901.50987658722</v>
+        <v>1633.693092099578</v>
       </c>
       <c r="P18" t="n">
-        <v>2357.173157305615</v>
+        <v>2089.356372817973</v>
       </c>
       <c r="Q18" t="n">
         <v>2357.173157305615</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>258.2911245218489</v>
+        <v>1063.45296668672</v>
       </c>
       <c r="C19" t="n">
-        <v>88.08600658783816</v>
+        <v>989.942579301736</v>
       </c>
       <c r="D19" t="n">
-        <v>88.08600658783816</v>
+        <v>834.3094662042508</v>
       </c>
       <c r="E19" t="n">
-        <v>88.08600658783816</v>
+        <v>678.7506540634533</v>
       </c>
       <c r="F19" t="n">
-        <v>88.08600658783816</v>
+        <v>521.4247192764263</v>
       </c>
       <c r="G19" t="n">
-        <v>88.08600658783816</v>
+        <v>353.3948282808276</v>
       </c>
       <c r="H19" t="n">
-        <v>88.08600658783816</v>
+        <v>199.9092892518373</v>
       </c>
       <c r="I19" t="n">
-        <v>88.08600658783816</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="J19" t="n">
         <v>73.55605379431174</v>
@@ -5679,13 +5679,13 @@
         <v>180.916480058984</v>
       </c>
       <c r="L19" t="n">
-        <v>377.7078248483129</v>
+        <v>377.7078248483128</v>
       </c>
       <c r="M19" t="n">
         <v>598.4387002306314</v>
       </c>
       <c r="N19" t="n">
-        <v>815.2487417978014</v>
+        <v>815.2487417978012</v>
       </c>
       <c r="O19" t="n">
         <v>1009.007396819615</v>
@@ -5697,28 +5697,28 @@
         <v>1177.274776709496</v>
       </c>
       <c r="R19" t="n">
-        <v>1177.274776709496</v>
+        <v>1063.45296668672</v>
       </c>
       <c r="S19" t="n">
-        <v>978.3652409720471</v>
+        <v>1063.45296668672</v>
       </c>
       <c r="T19" t="n">
-        <v>978.3652409720471</v>
+        <v>1063.45296668672</v>
       </c>
       <c r="U19" t="n">
-        <v>726.8295452819725</v>
+        <v>1063.45296668672</v>
       </c>
       <c r="V19" t="n">
-        <v>726.8295452819725</v>
+        <v>1063.45296668672</v>
       </c>
       <c r="W19" t="n">
-        <v>443.4991432131502</v>
+        <v>1063.45296668672</v>
       </c>
       <c r="X19" t="n">
-        <v>443.4991432131502</v>
+        <v>1063.45296668672</v>
       </c>
       <c r="Y19" t="n">
-        <v>443.4991432131502</v>
+        <v>1063.45296668672</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1702.925371974109</v>
+        <v>2084.313670196385</v>
       </c>
       <c r="C20" t="n">
-        <v>1702.925371974109</v>
+        <v>1691.138168699316</v>
       </c>
       <c r="D20" t="n">
-        <v>1317.484243190777</v>
+        <v>1305.697039915984</v>
       </c>
       <c r="E20" t="n">
-        <v>914.9007183073211</v>
+        <v>903.1135150325281</v>
       </c>
       <c r="F20" t="n">
-        <v>498.0062798372988</v>
+        <v>486.2190765625058</v>
       </c>
       <c r="G20" t="n">
-        <v>85.34325706910471</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="H20" t="n">
-        <v>85.34325706910471</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="I20" t="n">
         <v>73.55605379431174</v>
       </c>
       <c r="J20" t="n">
-        <v>259.7759762473726</v>
+        <v>259.7759762473734</v>
       </c>
       <c r="K20" t="n">
-        <v>681.0612104920358</v>
+        <v>681.061210492036</v>
       </c>
       <c r="L20" t="n">
         <v>1251.67373183635</v>
@@ -5764,7 +5764,7 @@
         <v>1883.677129957883</v>
       </c>
       <c r="N20" t="n">
-        <v>2498.882522004027</v>
+        <v>2498.882522004026</v>
       </c>
       <c r="O20" t="n">
         <v>3021.445901261525</v>
@@ -5779,25 +5779,25 @@
         <v>3671.201112969004</v>
       </c>
       <c r="S20" t="n">
-        <v>3516.075217809458</v>
+        <v>3671.201112969004</v>
       </c>
       <c r="T20" t="n">
-        <v>3516.075217809458</v>
+        <v>3671.201112969004</v>
       </c>
       <c r="U20" t="n">
-        <v>3260.362466863561</v>
+        <v>3671.201112969004</v>
       </c>
       <c r="V20" t="n">
-        <v>3260.362466863561</v>
+        <v>3641.750765085837</v>
       </c>
       <c r="W20" t="n">
-        <v>2889.363431831848</v>
+        <v>3270.751730054124</v>
       </c>
       <c r="X20" t="n">
-        <v>2499.910826764905</v>
+        <v>2881.299124987181</v>
       </c>
       <c r="Y20" t="n">
-        <v>2103.420117685506</v>
+        <v>2484.808415907782</v>
       </c>
     </row>
     <row r="21">
@@ -5819,10 +5819,10 @@
         <v>443.676767228548</v>
       </c>
       <c r="F21" t="n">
-        <v>319.2449611116798</v>
+        <v>319.2449611116799</v>
       </c>
       <c r="G21" t="n">
-        <v>199.4525237737779</v>
+        <v>199.452523773778</v>
       </c>
       <c r="H21" t="n">
         <v>113.7374409695304</v>
@@ -5831,25 +5831,25 @@
         <v>73.55605379431174</v>
       </c>
       <c r="J21" t="n">
-        <v>73.55605379431174</v>
+        <v>211.4299322985498</v>
       </c>
       <c r="K21" t="n">
-        <v>435.6120971457461</v>
+        <v>573.4859756499842</v>
       </c>
       <c r="L21" t="n">
-        <v>435.6120971457461</v>
+        <v>1113.952352183119</v>
       </c>
       <c r="M21" t="n">
-        <v>435.6120971457461</v>
+        <v>1177.574540780069</v>
       </c>
       <c r="N21" t="n">
-        <v>1054.822136524713</v>
+        <v>1901.50987658722</v>
       </c>
       <c r="O21" t="n">
-        <v>1633.693092099578</v>
+        <v>1901.50987658722</v>
       </c>
       <c r="P21" t="n">
-        <v>2089.356372817973</v>
+        <v>2357.173157305615</v>
       </c>
       <c r="Q21" t="n">
         <v>2357.173157305615</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>398.9118795769375</v>
+        <v>107.7771998967143</v>
       </c>
       <c r="C22" t="n">
-        <v>398.9118795769375</v>
+        <v>107.7771998967143</v>
       </c>
       <c r="D22" t="n">
-        <v>398.9118795769375</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="E22" t="n">
-        <v>398.9118795769375</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="F22" t="n">
-        <v>241.5859447899105</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="G22" t="n">
         <v>73.55605379431174</v>
@@ -5916,13 +5916,13 @@
         <v>180.916480058984</v>
       </c>
       <c r="L22" t="n">
-        <v>377.7078248483129</v>
+        <v>377.7078248483128</v>
       </c>
       <c r="M22" t="n">
         <v>598.4387002306314</v>
       </c>
       <c r="N22" t="n">
-        <v>815.2487417978014</v>
+        <v>815.2487417978012</v>
       </c>
       <c r="O22" t="n">
         <v>1009.007396819615</v>
@@ -5943,19 +5943,19 @@
         <v>942.5135118352684</v>
       </c>
       <c r="U22" t="n">
-        <v>916.3226038627768</v>
+        <v>657.0869471447124</v>
       </c>
       <c r="V22" t="n">
-        <v>916.3226038627768</v>
+        <v>391.1076019655367</v>
       </c>
       <c r="W22" t="n">
-        <v>632.9922017939545</v>
+        <v>107.7771998967143</v>
       </c>
       <c r="X22" t="n">
-        <v>398.9118795769375</v>
+        <v>107.7771998967143</v>
       </c>
       <c r="Y22" t="n">
-        <v>398.9118795769375</v>
+        <v>107.7771998967143</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2203.384840498467</v>
+        <v>2136.908874186176</v>
       </c>
       <c r="C23" t="n">
-        <v>1810.209339001398</v>
+        <v>1743.733372689106</v>
       </c>
       <c r="D23" t="n">
-        <v>1424.768210218066</v>
+        <v>1743.733372689106</v>
       </c>
       <c r="E23" t="n">
-        <v>1022.18468533461</v>
+        <v>1341.149847805651</v>
       </c>
       <c r="F23" t="n">
-        <v>605.2902468645882</v>
+        <v>924.2554093356284</v>
       </c>
       <c r="G23" t="n">
-        <v>192.6272240963941</v>
+        <v>511.5923865674342</v>
       </c>
       <c r="H23" t="n">
         <v>192.6272240963941</v>
@@ -5989,10 +5989,10 @@
         <v>73.55605379431174</v>
       </c>
       <c r="J23" t="n">
-        <v>259.7759762473725</v>
+        <v>259.7759762473726</v>
       </c>
       <c r="K23" t="n">
-        <v>681.0612104920356</v>
+        <v>681.0612104920358</v>
       </c>
       <c r="L23" t="n">
         <v>1251.67373183635</v>
@@ -6004,7 +6004,7 @@
         <v>2498.882522004026</v>
       </c>
       <c r="O23" t="n">
-        <v>3021.445901261525</v>
+        <v>3021.445901261524</v>
       </c>
       <c r="P23" t="n">
         <v>3440.065528972629</v>
@@ -6019,22 +6019,22 @@
         <v>3516.075217809458</v>
       </c>
       <c r="T23" t="n">
-        <v>3516.075217809458</v>
+        <v>3323.346934043915</v>
       </c>
       <c r="U23" t="n">
-        <v>3342.477104585745</v>
+        <v>3323.346934043915</v>
       </c>
       <c r="V23" t="n">
-        <v>3000.370295289263</v>
+        <v>3323.346934043915</v>
       </c>
       <c r="W23" t="n">
-        <v>3000.370295289263</v>
+        <v>3323.346934043915</v>
       </c>
       <c r="X23" t="n">
-        <v>3000.370295289263</v>
+        <v>2933.894328976971</v>
       </c>
       <c r="Y23" t="n">
-        <v>2603.879586209864</v>
+        <v>2537.403619897572</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>73.55605379431174</v>
       </c>
       <c r="J24" t="n">
-        <v>73.55605379431174</v>
+        <v>211.4299322985498</v>
       </c>
       <c r="K24" t="n">
-        <v>73.55605379431174</v>
+        <v>573.4859756499842</v>
       </c>
       <c r="L24" t="n">
-        <v>614.0224303274471</v>
+        <v>1113.952352183119</v>
       </c>
       <c r="M24" t="n">
-        <v>1308.194035311641</v>
+        <v>1113.952352183119</v>
       </c>
       <c r="N24" t="n">
-        <v>2032.129371118793</v>
+        <v>1113.952352183119</v>
       </c>
       <c r="O24" t="n">
-        <v>2357.173157305615</v>
+        <v>1692.823307757985</v>
       </c>
       <c r="P24" t="n">
-        <v>2357.173157305615</v>
+        <v>2148.486588476379</v>
       </c>
       <c r="Q24" t="n">
         <v>2357.173157305615</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2885.933661772852</v>
+        <v>243.7611717283225</v>
       </c>
       <c r="C25" t="n">
-        <v>2885.933661772852</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="D25" t="n">
-        <v>2885.933661772852</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="E25" t="n">
-        <v>2731.40990158743</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="F25" t="n">
-        <v>2574.083966800403</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="G25" t="n">
-        <v>2574.083966800403</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="H25" t="n">
-        <v>2574.083966800403</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="I25" t="n">
-        <v>2574.083966800403</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="J25" t="n">
-        <v>2574.083966800403</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="K25" t="n">
-        <v>2681.444393065075</v>
+        <v>180.916480058984</v>
       </c>
       <c r="L25" t="n">
-        <v>2878.235737854404</v>
+        <v>377.7078248483128</v>
       </c>
       <c r="M25" t="n">
-        <v>3098.966613236722</v>
+        <v>598.4387002306314</v>
       </c>
       <c r="N25" t="n">
-        <v>3315.776654803892</v>
+        <v>815.2487417978012</v>
       </c>
       <c r="O25" t="n">
-        <v>3509.535309825706</v>
+        <v>1009.007396819615</v>
       </c>
       <c r="P25" t="n">
-        <v>3655.983441494188</v>
+        <v>1155.455528488098</v>
       </c>
       <c r="Q25" t="n">
-        <v>3677.802689715587</v>
+        <v>1177.274776709496</v>
       </c>
       <c r="R25" t="n">
-        <v>3677.802689715587</v>
+        <v>1177.274776709496</v>
       </c>
       <c r="S25" t="n">
-        <v>3677.802689715587</v>
+        <v>1018.279142781411</v>
       </c>
       <c r="T25" t="n">
-        <v>3677.802689715587</v>
+        <v>1018.279142781411</v>
       </c>
       <c r="U25" t="n">
-        <v>3392.376125025031</v>
+        <v>732.8525780908549</v>
       </c>
       <c r="V25" t="n">
-        <v>3392.376125025031</v>
+        <v>466.8732329116792</v>
       </c>
       <c r="W25" t="n">
-        <v>3109.045722956208</v>
+        <v>466.8732329116792</v>
       </c>
       <c r="X25" t="n">
-        <v>3109.045722956208</v>
+        <v>466.8732329116792</v>
       </c>
       <c r="Y25" t="n">
-        <v>2885.933661772852</v>
+        <v>243.7611717283225</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1588.032285015776</v>
+        <v>2403.278832667425</v>
       </c>
       <c r="C26" t="n">
-        <v>1194.856783518706</v>
+        <v>2010.103331170356</v>
       </c>
       <c r="D26" t="n">
-        <v>809.4156547353741</v>
+        <v>1624.662202387024</v>
       </c>
       <c r="E26" t="n">
-        <v>809.4156547353741</v>
+        <v>1222.078677503568</v>
       </c>
       <c r="F26" t="n">
-        <v>392.5212162653519</v>
+        <v>805.184239033546</v>
       </c>
       <c r="G26" t="n">
         <v>392.5212162653519</v>
@@ -6226,10 +6226,10 @@
         <v>73.55605379431174</v>
       </c>
       <c r="J26" t="n">
-        <v>259.7759762473727</v>
+        <v>259.7759762473726</v>
       </c>
       <c r="K26" t="n">
-        <v>681.061210492036</v>
+        <v>681.0612104920358</v>
       </c>
       <c r="L26" t="n">
         <v>1251.67373183635</v>
@@ -6238,10 +6238,10 @@
         <v>1883.677129957883</v>
       </c>
       <c r="N26" t="n">
-        <v>2498.882522004027</v>
+        <v>2498.882522004026</v>
       </c>
       <c r="O26" t="n">
-        <v>3021.445901261525</v>
+        <v>3021.445901261524</v>
       </c>
       <c r="P26" t="n">
         <v>3440.065528972629</v>
@@ -6253,25 +6253,25 @@
         <v>3677.802689715587</v>
       </c>
       <c r="S26" t="n">
-        <v>3522.676794556041</v>
+        <v>3677.802689715587</v>
       </c>
       <c r="T26" t="n">
-        <v>3301.363772201454</v>
+        <v>3677.802689715587</v>
       </c>
       <c r="U26" t="n">
-        <v>3045.651021255556</v>
+        <v>3542.371096754703</v>
       </c>
       <c r="V26" t="n">
-        <v>3045.651021255556</v>
+        <v>3200.264287458221</v>
       </c>
       <c r="W26" t="n">
-        <v>2674.651986223844</v>
+        <v>3200.264287458221</v>
       </c>
       <c r="X26" t="n">
-        <v>2285.1993811569</v>
+        <v>3200.264287458221</v>
       </c>
       <c r="Y26" t="n">
-        <v>1988.527030727173</v>
+        <v>2803.773578378822</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>73.55605379431174</v>
       </c>
       <c r="J27" t="n">
-        <v>73.55605379431174</v>
+        <v>152.2997166401431</v>
       </c>
       <c r="K27" t="n">
-        <v>73.55605379431174</v>
+        <v>514.3557599915775</v>
       </c>
       <c r="L27" t="n">
-        <v>360.1952609394043</v>
+        <v>1054.822136524713</v>
       </c>
       <c r="M27" t="n">
-        <v>1054.366865923598</v>
+        <v>1054.822136524713</v>
       </c>
       <c r="N27" t="n">
-        <v>1778.30220173075</v>
+        <v>1054.822136524713</v>
       </c>
       <c r="O27" t="n">
-        <v>2357.173157305615</v>
+        <v>1633.693092099578</v>
       </c>
       <c r="P27" t="n">
-        <v>2357.173157305615</v>
+        <v>2089.356372817973</v>
       </c>
       <c r="Q27" t="n">
         <v>2357.173157305615</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>712.2790317536324</v>
+        <v>271.583938743985</v>
       </c>
       <c r="C28" t="n">
-        <v>542.0739138196216</v>
+        <v>271.583938743985</v>
       </c>
       <c r="D28" t="n">
-        <v>386.4408007221363</v>
+        <v>271.583938743985</v>
       </c>
       <c r="E28" t="n">
-        <v>230.8819885813388</v>
+        <v>271.583938743985</v>
       </c>
       <c r="F28" t="n">
-        <v>73.55605379431174</v>
+        <v>114.2580039569579</v>
       </c>
       <c r="G28" t="n">
         <v>73.55605379431174</v>
@@ -6396,7 +6396,7 @@
         <v>598.4387002306314</v>
       </c>
       <c r="N28" t="n">
-        <v>815.2487417978014</v>
+        <v>815.2487417978012</v>
       </c>
       <c r="O28" t="n">
         <v>1009.007396819615</v>
@@ -6408,28 +6408,28 @@
         <v>1177.274776709496</v>
       </c>
       <c r="R28" t="n">
-        <v>1177.274776709496</v>
+        <v>1063.45296668672</v>
       </c>
       <c r="S28" t="n">
-        <v>1177.274776709496</v>
+        <v>1063.45296668672</v>
       </c>
       <c r="T28" t="n">
-        <v>1177.274776709496</v>
+        <v>1063.45296668672</v>
       </c>
       <c r="U28" t="n">
-        <v>1177.274776709496</v>
+        <v>778.0264019961639</v>
       </c>
       <c r="V28" t="n">
-        <v>1177.274776709496</v>
+        <v>778.0264019961639</v>
       </c>
       <c r="W28" t="n">
-        <v>893.9443746406737</v>
+        <v>494.6959999273416</v>
       </c>
       <c r="X28" t="n">
-        <v>893.9443746406737</v>
+        <v>494.6959999273416</v>
       </c>
       <c r="Y28" t="n">
-        <v>893.9443746406737</v>
+        <v>271.583938743985</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2522.350002969508</v>
+        <v>1737.325100565419</v>
       </c>
       <c r="C29" t="n">
-        <v>2129.174501472438</v>
+        <v>1344.14959906835</v>
       </c>
       <c r="D29" t="n">
-        <v>1743.733372689106</v>
+        <v>1305.697039915984</v>
       </c>
       <c r="E29" t="n">
-        <v>1341.149847805651</v>
+        <v>903.1135150325281</v>
       </c>
       <c r="F29" t="n">
-        <v>924.2554093356284</v>
+        <v>486.2190765625058</v>
       </c>
       <c r="G29" t="n">
-        <v>511.5923865674342</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="H29" t="n">
-        <v>192.6272240963941</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="I29" t="n">
         <v>73.55605379431174</v>
       </c>
       <c r="J29" t="n">
-        <v>259.7759762473727</v>
+        <v>259.7759762473725</v>
       </c>
       <c r="K29" t="n">
-        <v>681.061210492036</v>
+        <v>681.0612104920356</v>
       </c>
       <c r="L29" t="n">
         <v>1251.67373183635</v>
@@ -6496,19 +6496,19 @@
         <v>3294.762195454871</v>
       </c>
       <c r="U29" t="n">
-        <v>3293.843783712617</v>
+        <v>3294.762195454871</v>
       </c>
       <c r="V29" t="n">
-        <v>3293.843783712617</v>
+        <v>3294.762195454871</v>
       </c>
       <c r="W29" t="n">
-        <v>2922.844748680905</v>
+        <v>2923.763160423158</v>
       </c>
       <c r="X29" t="n">
-        <v>2922.844748680905</v>
+        <v>2534.310555356215</v>
       </c>
       <c r="Y29" t="n">
-        <v>2922.844748680905</v>
+        <v>2137.819846276816</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>73.55605379431174</v>
       </c>
       <c r="J30" t="n">
-        <v>73.55605379431174</v>
+        <v>152.2997166401431</v>
       </c>
       <c r="K30" t="n">
-        <v>73.55605379431174</v>
+        <v>514.3557599915775</v>
       </c>
       <c r="L30" t="n">
-        <v>360.1952609394043</v>
+        <v>1054.822136524713</v>
       </c>
       <c r="M30" t="n">
-        <v>1054.366865923598</v>
+        <v>1054.822136524713</v>
       </c>
       <c r="N30" t="n">
-        <v>1778.30220173075</v>
+        <v>1054.822136524713</v>
       </c>
       <c r="O30" t="n">
-        <v>2357.173157305615</v>
+        <v>1633.693092099578</v>
       </c>
       <c r="P30" t="n">
-        <v>2357.173157305615</v>
+        <v>2089.356372817973</v>
       </c>
       <c r="Q30" t="n">
         <v>2357.173157305615</v>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>554.9530969666052</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="C31" t="n">
-        <v>384.7479790325945</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="D31" t="n">
-        <v>229.1148659351092</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="E31" t="n">
         <v>73.55605379431174</v>
@@ -6633,7 +6633,7 @@
         <v>598.4387002306314</v>
       </c>
       <c r="N31" t="n">
-        <v>815.2487417978014</v>
+        <v>815.2487417978012</v>
       </c>
       <c r="O31" t="n">
         <v>1009.007396819615</v>
@@ -6648,25 +6648,25 @@
         <v>1177.274776709496</v>
       </c>
       <c r="S31" t="n">
-        <v>1177.274776709496</v>
+        <v>978.3652409720471</v>
       </c>
       <c r="T31" t="n">
-        <v>1177.274776709496</v>
+        <v>743.6039760978194</v>
       </c>
       <c r="U31" t="n">
-        <v>1177.274776709496</v>
+        <v>743.6039760978194</v>
       </c>
       <c r="V31" t="n">
-        <v>1177.274776709496</v>
+        <v>743.6039760978194</v>
       </c>
       <c r="W31" t="n">
-        <v>1177.274776709496</v>
+        <v>460.2735740289971</v>
       </c>
       <c r="X31" t="n">
-        <v>963.2731768412632</v>
+        <v>460.2735740289971</v>
       </c>
       <c r="Y31" t="n">
-        <v>740.1611156579065</v>
+        <v>237.1615128456404</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2267.555663765864</v>
+        <v>1778.258785529654</v>
       </c>
       <c r="C32" t="n">
-        <v>2129.174501472438</v>
+        <v>1385.083284032585</v>
       </c>
       <c r="D32" t="n">
-        <v>1743.733372689106</v>
+        <v>999.6421552492523</v>
       </c>
       <c r="E32" t="n">
-        <v>1341.149847805651</v>
+        <v>597.0586303657967</v>
       </c>
       <c r="F32" t="n">
-        <v>924.2554093356284</v>
+        <v>180.1641918957745</v>
       </c>
       <c r="G32" t="n">
-        <v>511.5923865674342</v>
+        <v>73.55605379431175</v>
       </c>
       <c r="H32" t="n">
-        <v>192.6272240963941</v>
+        <v>73.55605379431175</v>
       </c>
       <c r="I32" t="n">
-        <v>73.55605379431174</v>
+        <v>73.55605379431175</v>
       </c>
       <c r="J32" t="n">
-        <v>259.7759762473726</v>
+        <v>259.7759762473729</v>
       </c>
       <c r="K32" t="n">
-        <v>681.0612104920358</v>
+        <v>681.061210492036</v>
       </c>
       <c r="L32" t="n">
-        <v>1251.67373183635</v>
+        <v>1251.673731836351</v>
       </c>
       <c r="M32" t="n">
-        <v>1883.677129957883</v>
+        <v>1883.677129957884</v>
       </c>
       <c r="N32" t="n">
-        <v>2498.882522004026</v>
+        <v>2498.882522004027</v>
       </c>
       <c r="O32" t="n">
-        <v>3021.445901261524</v>
+        <v>3021.445901261525</v>
       </c>
       <c r="P32" t="n">
-        <v>3440.065528972629</v>
+        <v>3440.06552897263</v>
       </c>
       <c r="Q32" t="n">
-        <v>3677.802689715586</v>
+        <v>3677.802689715587</v>
       </c>
       <c r="R32" t="n">
-        <v>3671.201112969004</v>
+        <v>3677.802689715587</v>
       </c>
       <c r="S32" t="n">
-        <v>3516.075217809458</v>
+        <v>3677.802689715587</v>
       </c>
       <c r="T32" t="n">
-        <v>3294.76219545487</v>
+        <v>3677.802689715587</v>
       </c>
       <c r="U32" t="n">
-        <v>3039.049444508973</v>
+        <v>3677.802689715587</v>
       </c>
       <c r="V32" t="n">
-        <v>3039.049444508973</v>
+        <v>3335.695880419106</v>
       </c>
       <c r="W32" t="n">
-        <v>2668.05040947726</v>
+        <v>2964.696845387393</v>
       </c>
       <c r="X32" t="n">
-        <v>2668.05040947726</v>
+        <v>2575.24424032045</v>
       </c>
       <c r="Y32" t="n">
-        <v>2668.05040947726</v>
+        <v>2178.753531241051</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>113.7374409695304</v>
       </c>
       <c r="I33" t="n">
-        <v>73.55605379431174</v>
+        <v>73.55605379431175</v>
       </c>
       <c r="J33" t="n">
-        <v>73.55605379431174</v>
+        <v>152.2997166401431</v>
       </c>
       <c r="K33" t="n">
-        <v>73.55605379431174</v>
+        <v>514.3557599915775</v>
       </c>
       <c r="L33" t="n">
-        <v>614.0224303274471</v>
+        <v>1054.822136524713</v>
       </c>
       <c r="M33" t="n">
-        <v>1308.194035311641</v>
+        <v>1054.822136524713</v>
       </c>
       <c r="N33" t="n">
-        <v>1778.30220173075</v>
+        <v>1054.822136524713</v>
       </c>
       <c r="O33" t="n">
-        <v>2357.173157305615</v>
+        <v>1633.693092099578</v>
       </c>
       <c r="P33" t="n">
-        <v>2357.173157305615</v>
+        <v>2089.356372817973</v>
       </c>
       <c r="Q33" t="n">
         <v>2357.173157305615</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3478.893153978137</v>
+        <v>228.7166547481658</v>
       </c>
       <c r="C34" t="n">
-        <v>3478.893153978137</v>
+        <v>228.7166547481658</v>
       </c>
       <c r="D34" t="n">
-        <v>3323.260040880652</v>
+        <v>228.7166547481658</v>
       </c>
       <c r="E34" t="n">
-        <v>3167.701228739855</v>
+        <v>228.7166547481658</v>
       </c>
       <c r="F34" t="n">
-        <v>3010.375293952828</v>
+        <v>228.7166547481658</v>
       </c>
       <c r="G34" t="n">
-        <v>2842.345402957229</v>
+        <v>73.55605379431175</v>
       </c>
       <c r="H34" t="n">
-        <v>2688.859863928239</v>
+        <v>73.55605379431175</v>
       </c>
       <c r="I34" t="n">
-        <v>2588.613919593929</v>
+        <v>73.55605379431175</v>
       </c>
       <c r="J34" t="n">
-        <v>2574.083966800402</v>
+        <v>73.55605379431175</v>
       </c>
       <c r="K34" t="n">
-        <v>2681.444393065075</v>
+        <v>180.916480058984</v>
       </c>
       <c r="L34" t="n">
-        <v>2878.235737854403</v>
+        <v>377.7078248483128</v>
       </c>
       <c r="M34" t="n">
-        <v>3098.966613236722</v>
+        <v>598.4387002306314</v>
       </c>
       <c r="N34" t="n">
-        <v>3315.776654803892</v>
+        <v>815.2487417978012</v>
       </c>
       <c r="O34" t="n">
-        <v>3509.535309825705</v>
+        <v>1009.007396819615</v>
       </c>
       <c r="P34" t="n">
-        <v>3655.983441494188</v>
+        <v>1155.455528488098</v>
       </c>
       <c r="Q34" t="n">
-        <v>3677.802689715586</v>
+        <v>1177.274776709496</v>
       </c>
       <c r="R34" t="n">
-        <v>3677.802689715586</v>
+        <v>1063.45296668672</v>
       </c>
       <c r="S34" t="n">
-        <v>3478.893153978137</v>
+        <v>1063.45296668672</v>
       </c>
       <c r="T34" t="n">
-        <v>3478.893153978137</v>
+        <v>1063.45296668672</v>
       </c>
       <c r="U34" t="n">
-        <v>3478.893153978137</v>
+        <v>778.0264019961639</v>
       </c>
       <c r="V34" t="n">
-        <v>3478.893153978137</v>
+        <v>512.0470568169882</v>
       </c>
       <c r="W34" t="n">
-        <v>3478.893153978137</v>
+        <v>228.7166547481658</v>
       </c>
       <c r="X34" t="n">
-        <v>3478.893153978137</v>
+        <v>228.7166547481658</v>
       </c>
       <c r="Y34" t="n">
-        <v>3478.893153978137</v>
+        <v>228.7166547481658</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2126.777705632363</v>
+        <v>2000.69530778397</v>
       </c>
       <c r="C35" t="n">
-        <v>1733.602204135293</v>
+        <v>1607.5198062869</v>
       </c>
       <c r="D35" t="n">
-        <v>1348.161075351961</v>
+        <v>1222.078677503568</v>
       </c>
       <c r="E35" t="n">
-        <v>1341.149847805651</v>
+        <v>1222.078677503568</v>
       </c>
       <c r="F35" t="n">
-        <v>924.2554093356284</v>
+        <v>805.184239033546</v>
       </c>
       <c r="G35" t="n">
-        <v>511.5923865674342</v>
+        <v>392.5212162653519</v>
       </c>
       <c r="H35" t="n">
-        <v>192.6272240963941</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="I35" t="n">
         <v>73.55605379431174</v>
       </c>
       <c r="J35" t="n">
-        <v>259.775976247373</v>
+        <v>259.7759762473726</v>
       </c>
       <c r="K35" t="n">
-        <v>681.0612104920361</v>
+        <v>681.0612104920358</v>
       </c>
       <c r="L35" t="n">
         <v>1251.67373183635</v>
@@ -6949,7 +6949,7 @@
         <v>1883.677129957883</v>
       </c>
       <c r="N35" t="n">
-        <v>2498.882522004026</v>
+        <v>2498.882522004027</v>
       </c>
       <c r="O35" t="n">
         <v>3021.445901261525</v>
@@ -6961,28 +6961,28 @@
         <v>3677.802689715587</v>
       </c>
       <c r="R35" t="n">
-        <v>3671.201112969004</v>
+        <v>3677.802689715587</v>
       </c>
       <c r="S35" t="n">
-        <v>3516.075217809458</v>
+        <v>3522.676794556041</v>
       </c>
       <c r="T35" t="n">
-        <v>3294.762195454871</v>
+        <v>3522.676794556041</v>
       </c>
       <c r="U35" t="n">
-        <v>3294.762195454871</v>
+        <v>3266.964043610144</v>
       </c>
       <c r="V35" t="n">
-        <v>3294.762195454871</v>
+        <v>2924.857234313662</v>
       </c>
       <c r="W35" t="n">
-        <v>2923.763160423158</v>
+        <v>2797.680762574766</v>
       </c>
       <c r="X35" t="n">
-        <v>2923.763160423158</v>
+        <v>2797.680762574766</v>
       </c>
       <c r="Y35" t="n">
-        <v>2527.272451343759</v>
+        <v>2401.190053495367</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>73.55605379431174</v>
       </c>
       <c r="J36" t="n">
-        <v>73.55605379431174</v>
+        <v>152.2997166401431</v>
       </c>
       <c r="K36" t="n">
-        <v>73.55605379431174</v>
+        <v>514.3557599915775</v>
       </c>
       <c r="L36" t="n">
-        <v>614.0224303274471</v>
+        <v>1054.822136524713</v>
       </c>
       <c r="M36" t="n">
-        <v>1054.366865923598</v>
+        <v>1054.822136524713</v>
       </c>
       <c r="N36" t="n">
-        <v>1778.30220173075</v>
+        <v>1054.822136524713</v>
       </c>
       <c r="O36" t="n">
-        <v>2357.173157305615</v>
+        <v>1633.693092099578</v>
       </c>
       <c r="P36" t="n">
-        <v>2357.173157305615</v>
+        <v>2089.356372817973</v>
       </c>
       <c r="Q36" t="n">
         <v>2357.173157305615</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3209.264268955463</v>
+        <v>227.0415928233021</v>
       </c>
       <c r="C37" t="n">
-        <v>3209.264268955463</v>
+        <v>227.0415928233021</v>
       </c>
       <c r="D37" t="n">
-        <v>3209.264268955463</v>
+        <v>227.0415928233021</v>
       </c>
       <c r="E37" t="n">
-        <v>3053.705456814666</v>
+        <v>227.0415928233021</v>
       </c>
       <c r="F37" t="n">
-        <v>2896.379522027639</v>
+        <v>227.0415928233021</v>
       </c>
       <c r="G37" t="n">
-        <v>2728.34963103204</v>
+        <v>227.0415928233021</v>
       </c>
       <c r="H37" t="n">
-        <v>2574.86409200305</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="I37" t="n">
-        <v>2574.083966800403</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="J37" t="n">
-        <v>2574.083966800403</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="K37" t="n">
-        <v>2681.444393065075</v>
+        <v>180.916480058984</v>
       </c>
       <c r="L37" t="n">
-        <v>2878.235737854404</v>
+        <v>377.7078248483128</v>
       </c>
       <c r="M37" t="n">
-        <v>3098.966613236722</v>
+        <v>598.4387002306314</v>
       </c>
       <c r="N37" t="n">
-        <v>3315.776654803892</v>
+        <v>815.2487417978012</v>
       </c>
       <c r="O37" t="n">
-        <v>3509.535309825706</v>
+        <v>1009.007396819615</v>
       </c>
       <c r="P37" t="n">
-        <v>3655.983441494188</v>
+        <v>1155.455528488098</v>
       </c>
       <c r="Q37" t="n">
-        <v>3677.802689715587</v>
+        <v>1177.274776709496</v>
       </c>
       <c r="R37" t="n">
-        <v>3677.802689715587</v>
+        <v>1177.274776709496</v>
       </c>
       <c r="S37" t="n">
-        <v>3677.802689715587</v>
+        <v>978.3652409720471</v>
       </c>
       <c r="T37" t="n">
-        <v>3677.802689715587</v>
+        <v>978.3652409720471</v>
       </c>
       <c r="U37" t="n">
-        <v>3677.802689715587</v>
+        <v>967.5643782924981</v>
       </c>
       <c r="V37" t="n">
-        <v>3677.802689715587</v>
+        <v>967.5643782924981</v>
       </c>
       <c r="W37" t="n">
-        <v>3394.472287646764</v>
+        <v>684.2339762236757</v>
       </c>
       <c r="X37" t="n">
-        <v>3394.472287646764</v>
+        <v>450.1536540066587</v>
       </c>
       <c r="Y37" t="n">
-        <v>3394.472287646764</v>
+        <v>227.0415928233021</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1540.000286034437</v>
+        <v>2108.324135597132</v>
       </c>
       <c r="C38" t="n">
-        <v>1331.070349920912</v>
+        <v>1715.148634100062</v>
       </c>
       <c r="D38" t="n">
-        <v>1331.070349920912</v>
+        <v>1624.662202387024</v>
       </c>
       <c r="E38" t="n">
-        <v>928.4868250374565</v>
+        <v>1222.078677503568</v>
       </c>
       <c r="F38" t="n">
-        <v>511.5923865674342</v>
+        <v>805.184239033546</v>
       </c>
       <c r="G38" t="n">
-        <v>511.5923865674342</v>
+        <v>392.5212162653519</v>
       </c>
       <c r="H38" t="n">
-        <v>192.6272240963941</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="I38" t="n">
         <v>73.55605379431174</v>
       </c>
       <c r="J38" t="n">
-        <v>259.7759762473727</v>
+        <v>259.7759762473725</v>
       </c>
       <c r="K38" t="n">
-        <v>681.061210492036</v>
+        <v>681.0612104920358</v>
       </c>
       <c r="L38" t="n">
         <v>1251.67373183635</v>
@@ -7186,10 +7186,10 @@
         <v>1883.677129957883</v>
       </c>
       <c r="N38" t="n">
-        <v>2498.882522004027</v>
+        <v>2498.882522004026</v>
       </c>
       <c r="O38" t="n">
-        <v>3021.445901261525</v>
+        <v>3021.445901261524</v>
       </c>
       <c r="P38" t="n">
         <v>3440.065528972629</v>
@@ -7207,19 +7207,19 @@
         <v>3294.762195454871</v>
       </c>
       <c r="U38" t="n">
-        <v>3039.049444508973</v>
+        <v>3294.762195454871</v>
       </c>
       <c r="V38" t="n">
-        <v>2696.942635212492</v>
+        <v>3294.762195454871</v>
       </c>
       <c r="W38" t="n">
-        <v>2325.943600180779</v>
+        <v>3294.762195454871</v>
       </c>
       <c r="X38" t="n">
-        <v>1936.490995113836</v>
+        <v>2905.309590387928</v>
       </c>
       <c r="Y38" t="n">
-        <v>1540.000286034437</v>
+        <v>2508.818881308528</v>
       </c>
     </row>
     <row r="39">
@@ -7241,10 +7241,10 @@
         <v>443.676767228548</v>
       </c>
       <c r="F39" t="n">
-        <v>319.2449611116798</v>
+        <v>319.2449611116799</v>
       </c>
       <c r="G39" t="n">
-        <v>199.4525237737779</v>
+        <v>199.452523773778</v>
       </c>
       <c r="H39" t="n">
         <v>113.7374409695304</v>
@@ -7253,25 +7253,25 @@
         <v>73.55605379431174</v>
       </c>
       <c r="J39" t="n">
-        <v>73.55605379431174</v>
+        <v>211.4299322985498</v>
       </c>
       <c r="K39" t="n">
-        <v>73.55605379431174</v>
+        <v>573.4859756499842</v>
       </c>
       <c r="L39" t="n">
-        <v>614.0224303274471</v>
+        <v>1113.952352183119</v>
       </c>
       <c r="M39" t="n">
-        <v>1054.366865923598</v>
+        <v>1808.123957167313</v>
       </c>
       <c r="N39" t="n">
-        <v>1778.30220173075</v>
+        <v>1808.123957167313</v>
       </c>
       <c r="O39" t="n">
-        <v>2357.173157305615</v>
+        <v>1808.123957167313</v>
       </c>
       <c r="P39" t="n">
-        <v>2357.173157305615</v>
+        <v>2263.787237885708</v>
       </c>
       <c r="Q39" t="n">
         <v>2357.173157305615</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>108.4581425539251</v>
+        <v>521.4247192764263</v>
       </c>
       <c r="C40" t="n">
-        <v>108.4581425539251</v>
+        <v>521.4247192764263</v>
       </c>
       <c r="D40" t="n">
-        <v>108.4581425539251</v>
+        <v>521.4247192764263</v>
       </c>
       <c r="E40" t="n">
-        <v>108.4581425539251</v>
+        <v>521.4247192764263</v>
       </c>
       <c r="F40" t="n">
-        <v>108.4581425539251</v>
+        <v>521.4247192764263</v>
       </c>
       <c r="G40" t="n">
-        <v>73.55605379431174</v>
+        <v>353.3948282808276</v>
       </c>
       <c r="H40" t="n">
-        <v>73.55605379431174</v>
+        <v>199.9092892518373</v>
       </c>
       <c r="I40" t="n">
         <v>73.55605379431174</v>
@@ -7338,13 +7338,13 @@
         <v>180.916480058984</v>
       </c>
       <c r="L40" t="n">
-        <v>377.7078248483129</v>
+        <v>377.7078248483128</v>
       </c>
       <c r="M40" t="n">
         <v>598.4387002306314</v>
       </c>
       <c r="N40" t="n">
-        <v>815.2487417978014</v>
+        <v>815.2487417978012</v>
       </c>
       <c r="O40" t="n">
         <v>1009.007396819615</v>
@@ -7365,19 +7365,19 @@
         <v>1177.274776709496</v>
       </c>
       <c r="U40" t="n">
-        <v>891.8482120189401</v>
+        <v>1177.274776709496</v>
       </c>
       <c r="V40" t="n">
-        <v>625.8688668397643</v>
+        <v>911.2954315303203</v>
       </c>
       <c r="W40" t="n">
-        <v>342.538464770942</v>
+        <v>911.2954315303203</v>
       </c>
       <c r="X40" t="n">
-        <v>108.4581425539251</v>
+        <v>911.2954315303203</v>
       </c>
       <c r="Y40" t="n">
-        <v>108.4581425539251</v>
+        <v>688.1833703469637</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1139.50554032304</v>
+        <v>1671.650647428191</v>
       </c>
       <c r="C41" t="n">
-        <v>746.3300388259709</v>
+        <v>1278.475145931122</v>
       </c>
       <c r="D41" t="n">
-        <v>746.3300388259709</v>
+        <v>893.0340171477894</v>
       </c>
       <c r="E41" t="n">
-        <v>746.3300388259709</v>
+        <v>490.450492264334</v>
       </c>
       <c r="F41" t="n">
-        <v>746.3300388259709</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="G41" t="n">
-        <v>333.6670160577767</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="H41" t="n">
-        <v>192.6272240963941</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="I41" t="n">
         <v>73.55605379431174</v>
       </c>
       <c r="J41" t="n">
-        <v>259.7759762473726</v>
+        <v>259.7759762473727</v>
       </c>
       <c r="K41" t="n">
-        <v>681.0612104920358</v>
+        <v>681.061210492036</v>
       </c>
       <c r="L41" t="n">
         <v>1251.67373183635</v>
@@ -7423,7 +7423,7 @@
         <v>1883.677129957883</v>
       </c>
       <c r="N41" t="n">
-        <v>2498.882522004026</v>
+        <v>2498.882522004027</v>
       </c>
       <c r="O41" t="n">
         <v>3021.445901261525</v>
@@ -7438,25 +7438,25 @@
         <v>3671.201112969004</v>
       </c>
       <c r="S41" t="n">
-        <v>3516.075217809458</v>
+        <v>3671.201112969004</v>
       </c>
       <c r="T41" t="n">
-        <v>3294.762195454871</v>
+        <v>3449.888090614417</v>
       </c>
       <c r="U41" t="n">
-        <v>3039.049444508973</v>
+        <v>3449.888090614417</v>
       </c>
       <c r="V41" t="n">
-        <v>2696.942635212492</v>
+        <v>3107.781281317935</v>
       </c>
       <c r="W41" t="n">
-        <v>2325.943600180779</v>
+        <v>2736.782246286223</v>
       </c>
       <c r="X41" t="n">
-        <v>1936.490995113836</v>
+        <v>2347.329641219279</v>
       </c>
       <c r="Y41" t="n">
-        <v>1540.000286034437</v>
+        <v>2072.145393139588</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>73.55605379431174</v>
       </c>
       <c r="J42" t="n">
-        <v>73.55605379431174</v>
+        <v>211.4299322985498</v>
       </c>
       <c r="K42" t="n">
-        <v>73.55605379431174</v>
+        <v>573.4859756499843</v>
       </c>
       <c r="L42" t="n">
-        <v>360.1952609394041</v>
+        <v>1113.95235218312</v>
       </c>
       <c r="M42" t="n">
-        <v>1054.366865923598</v>
+        <v>1808.123957167314</v>
       </c>
       <c r="N42" t="n">
-        <v>1778.30220173075</v>
+        <v>1808.123957167314</v>
       </c>
       <c r="O42" t="n">
-        <v>2357.173157305615</v>
+        <v>1808.123957167314</v>
       </c>
       <c r="P42" t="n">
-        <v>2357.173157305615</v>
+        <v>2263.787237885708</v>
       </c>
       <c r="Q42" t="n">
         <v>2357.173157305615</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>768.9546968348382</v>
+        <v>243.7611717283225</v>
       </c>
       <c r="C43" t="n">
-        <v>598.7495789008274</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="D43" t="n">
-        <v>443.1164658033421</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="E43" t="n">
-        <v>287.5576536625446</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="F43" t="n">
-        <v>287.5576536625446</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="G43" t="n">
-        <v>119.5277626669459</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="H43" t="n">
         <v>73.55605379431174</v>
@@ -7599,22 +7599,22 @@
         <v>1177.274776709496</v>
       </c>
       <c r="T43" t="n">
-        <v>1177.274776709496</v>
+        <v>942.5135118352684</v>
       </c>
       <c r="U43" t="n">
-        <v>1177.274776709496</v>
+        <v>657.0869471447124</v>
       </c>
       <c r="V43" t="n">
-        <v>1177.274776709496</v>
+        <v>391.1076019655367</v>
       </c>
       <c r="W43" t="n">
-        <v>1177.274776709496</v>
+        <v>243.7611717283225</v>
       </c>
       <c r="X43" t="n">
-        <v>1177.274776709496</v>
+        <v>243.7611717283225</v>
       </c>
       <c r="Y43" t="n">
-        <v>954.1627155261394</v>
+        <v>243.7611717283225</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1597.440308402162</v>
+        <v>1702.87203961603</v>
       </c>
       <c r="C44" t="n">
-        <v>1597.440308402162</v>
+        <v>1309.696538118961</v>
       </c>
       <c r="D44" t="n">
-        <v>1211.99917961883</v>
+        <v>924.2554093356284</v>
       </c>
       <c r="E44" t="n">
-        <v>809.4156547353741</v>
+        <v>924.2554093356284</v>
       </c>
       <c r="F44" t="n">
-        <v>392.5212162653519</v>
+        <v>924.2554093356284</v>
       </c>
       <c r="G44" t="n">
-        <v>392.5212162653519</v>
+        <v>511.5923865674342</v>
       </c>
       <c r="H44" t="n">
-        <v>73.55605379431174</v>
+        <v>192.6272240963941</v>
       </c>
       <c r="I44" t="n">
         <v>73.55605379431174</v>
@@ -7672,28 +7672,28 @@
         <v>3677.802689715587</v>
       </c>
       <c r="R44" t="n">
-        <v>3677.802689715587</v>
+        <v>3671.201112969004</v>
       </c>
       <c r="S44" t="n">
-        <v>3677.802689715587</v>
+        <v>3516.075217809458</v>
       </c>
       <c r="T44" t="n">
-        <v>3677.802689715587</v>
+        <v>3294.762195454871</v>
       </c>
       <c r="U44" t="n">
-        <v>3422.08993876969</v>
+        <v>3039.049444508973</v>
       </c>
       <c r="V44" t="n">
-        <v>3154.877403291614</v>
+        <v>3039.049444508973</v>
       </c>
       <c r="W44" t="n">
-        <v>2783.878368259901</v>
+        <v>2889.310099473769</v>
       </c>
       <c r="X44" t="n">
-        <v>2394.425763192958</v>
+        <v>2499.857494406826</v>
       </c>
       <c r="Y44" t="n">
-        <v>1997.935054113559</v>
+        <v>2103.366785327427</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>73.55605379431174</v>
       </c>
       <c r="J45" t="n">
-        <v>73.55605379431174</v>
+        <v>211.4299322985498</v>
       </c>
       <c r="K45" t="n">
-        <v>73.55605379431174</v>
+        <v>573.4859756499843</v>
       </c>
       <c r="L45" t="n">
-        <v>614.0224303274471</v>
+        <v>1113.95235218312</v>
       </c>
       <c r="M45" t="n">
-        <v>1308.194035311641</v>
+        <v>1113.95235218312</v>
       </c>
       <c r="N45" t="n">
-        <v>1778.30220173075</v>
+        <v>1113.95235218312</v>
       </c>
       <c r="O45" t="n">
-        <v>2357.173157305615</v>
+        <v>1692.823307757985</v>
       </c>
       <c r="P45" t="n">
-        <v>2357.173157305615</v>
+        <v>2148.48658847638</v>
       </c>
       <c r="Q45" t="n">
         <v>2357.173157305615</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2742.099458622919</v>
+        <v>743.6039760978194</v>
       </c>
       <c r="C46" t="n">
-        <v>2742.099458622919</v>
+        <v>743.6039760978194</v>
       </c>
       <c r="D46" t="n">
-        <v>2742.099458622919</v>
+        <v>587.9708630003342</v>
       </c>
       <c r="E46" t="n">
-        <v>2742.099458622919</v>
+        <v>587.9708630003342</v>
       </c>
       <c r="F46" t="n">
-        <v>2742.099458622919</v>
+        <v>430.6449282133072</v>
       </c>
       <c r="G46" t="n">
-        <v>2742.099458622919</v>
+        <v>353.3948282808276</v>
       </c>
       <c r="H46" t="n">
-        <v>2588.613919593929</v>
+        <v>199.9092892518373</v>
       </c>
       <c r="I46" t="n">
-        <v>2588.613919593929</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="J46" t="n">
-        <v>2574.083966800403</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="K46" t="n">
-        <v>2681.444393065075</v>
+        <v>180.916480058984</v>
       </c>
       <c r="L46" t="n">
-        <v>2878.235737854404</v>
+        <v>377.7078248483129</v>
       </c>
       <c r="M46" t="n">
-        <v>3098.966613236722</v>
+        <v>598.4387002306314</v>
       </c>
       <c r="N46" t="n">
-        <v>3315.776654803892</v>
+        <v>815.2487417978014</v>
       </c>
       <c r="O46" t="n">
-        <v>3509.535309825706</v>
+        <v>1009.007396819615</v>
       </c>
       <c r="P46" t="n">
-        <v>3655.983441494188</v>
+        <v>1155.455528488098</v>
       </c>
       <c r="Q46" t="n">
-        <v>3677.802689715587</v>
+        <v>1177.274776709496</v>
       </c>
       <c r="R46" t="n">
-        <v>3563.980879692811</v>
+        <v>1177.274776709496</v>
       </c>
       <c r="S46" t="n">
-        <v>3365.071343955361</v>
+        <v>978.3652409720471</v>
       </c>
       <c r="T46" t="n">
-        <v>3365.071343955361</v>
+        <v>743.6039760978194</v>
       </c>
       <c r="U46" t="n">
-        <v>3079.644779264805</v>
+        <v>743.6039760978194</v>
       </c>
       <c r="V46" t="n">
-        <v>2813.66543408563</v>
+        <v>743.6039760978194</v>
       </c>
       <c r="W46" t="n">
-        <v>2813.66543408563</v>
+        <v>743.6039760978194</v>
       </c>
       <c r="X46" t="n">
-        <v>2813.66543408563</v>
+        <v>743.6039760978194</v>
       </c>
       <c r="Y46" t="n">
-        <v>2813.66543408563</v>
+        <v>743.6039760978194</v>
       </c>
     </row>
   </sheetData>
@@ -7978,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>616.3484143223238</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>149.7250515977273</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>301.1357168357237</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
         <v>331.2113854294513</v>
@@ -8057,28 +8057,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>683.7992483186069</v>
+        <v>560.2818744604613</v>
       </c>
       <c r="N3" t="n">
         <v>676.7842391234617</v>
       </c>
       <c r="O3" t="n">
-        <v>353.4472259067894</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8221,19 +8221,19 @@
         <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M5" t="n">
-        <v>701.2411122488187</v>
+        <v>466.7144144634705</v>
       </c>
       <c r="N5" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O5" t="n">
-        <v>212.9227975229111</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
         <v>331.2113854294513</v>
@@ -8294,7 +8294,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>89.90975703143043</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
@@ -8303,7 +8303,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>683.7992483186069</v>
+        <v>577.0069902189997</v>
       </c>
       <c r="N6" t="n">
         <v>85.37211285416666</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>245.273674853243</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
         <v>143.0584031792374</v>
@@ -8461,7 +8461,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>477.1304116531281</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
@@ -8470,7 +8470,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
         <v>331.2113854294513</v>
@@ -8540,10 +8540,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>92.38712204931191</v>
+        <v>340.274574506989</v>
       </c>
       <c r="N9" t="n">
-        <v>333.2595653118437</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8768,19 +8768,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>57.43547118736294</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>46.85259463716361</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>25.31646007202627</v>
+        <v>25.31646007202632</v>
       </c>
       <c r="N12" t="n">
-        <v>732.3005230443844</v>
+        <v>16.52629002932575</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -8789,7 +8789,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>57.19856433495291</v>
+        <v>267.9930783038777</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9005,16 +9005,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>57.43547118736294</v>
+        <v>57.43547118736296</v>
       </c>
       <c r="K15" t="n">
-        <v>46.85259463716361</v>
+        <v>46.85259463716364</v>
       </c>
       <c r="L15" t="n">
-        <v>563.0373577418367</v>
+        <v>322.1198584834541</v>
       </c>
       <c r="M15" t="n">
-        <v>25.31646007202627</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
         <v>747.7741039759435</v>
@@ -9023,10 +9023,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>36.53597895871121</v>
       </c>
       <c r="Q15" t="n">
-        <v>57.19856433495291</v>
+        <v>57.19856433495293</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9242,28 +9242,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>57.43547118736294</v>
+        <v>57.43547118736296</v>
       </c>
       <c r="K18" t="n">
-        <v>46.85259463716361</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>32.58530581164341</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>25.31646007202632</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>96.06534340895344</v>
       </c>
       <c r="O18" t="n">
-        <v>443.6938306239174</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>57.19856433495291</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9479,28 +9479,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>57.43547118736294</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>32.5853058116434</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>25.31646007202627</v>
+        <v>89.58129703864188</v>
       </c>
       <c r="N21" t="n">
-        <v>641.990976270706</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>29.70708112738963</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.7205688679246</v>
+        <v>57.19856433495293</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9716,28 +9716,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>57.43547118736295</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>46.85259463716363</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>25.3164600720263</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>16.52629002932574</v>
       </c>
       <c r="O24" t="n">
-        <v>358.0341378817554</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>36.5359789587112</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>57.19856433495292</v>
+        <v>267.9930783038777</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9953,28 +9953,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>57.43547118736295</v>
+        <v>136.9745245669906</v>
       </c>
       <c r="K27" t="n">
-        <v>46.85259463716363</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>322.1198584834541</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>25.3164600720263</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>16.52629002932574</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>36.5359789587112</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>57.19856433495292</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10190,28 +10190,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>57.43547118736295</v>
+        <v>136.9745245669906</v>
       </c>
       <c r="K30" t="n">
-        <v>46.85259463716363</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>322.1198584834541</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>25.3164600720263</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>16.52629002932574</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>36.5359789587112</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>57.19856433495292</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10427,28 +10427,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>57.43547118736295</v>
+        <v>136.9745245669906</v>
       </c>
       <c r="K33" t="n">
-        <v>46.85259463716363</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>25.3164600720263</v>
       </c>
       <c r="N33" t="n">
-        <v>491.3830237860011</v>
+        <v>16.52629002932574</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>36.5359789587112</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>57.19856433495292</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10664,28 +10664,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>57.43547118736295</v>
+        <v>136.9745245669906</v>
       </c>
       <c r="K36" t="n">
-        <v>46.85259463716363</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>470.1088192600578</v>
+        <v>25.3164600720263</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>16.52629002932574</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>36.5359789587112</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>57.19856433495292</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10901,28 +10901,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>57.43547118736294</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>46.85259463716361</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>470.1088192600575</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>16.52629002932574</v>
       </c>
       <c r="O39" t="n">
-        <v>614.4252180716981</v>
+        <v>29.70708112738962</v>
       </c>
       <c r="P39" t="n">
-        <v>36.53597895871118</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>57.19856433495291</v>
+        <v>151.5277758702122</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11138,28 +11138,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>57.43547118736294</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>46.85259463716361</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>322.1198584834539</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>16.52629002932572</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>29.7070811273896</v>
       </c>
       <c r="P42" t="n">
-        <v>36.53597895871118</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>57.19856433495291</v>
+        <v>151.5277758702122</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11375,28 +11375,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>57.43547118736294</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>46.85259463716361</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>726.4998994499999</v>
+        <v>25.31646007202629</v>
       </c>
       <c r="N45" t="n">
-        <v>491.383023786001</v>
+        <v>16.52629002932572</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>36.53597895871118</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>57.19856433495291</v>
+        <v>267.9930783038772</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23272,7 +23272,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>408.5363925405122</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>6.535560979117115</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -23317,13 +23317,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>107.1985221434975</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>30.81230982738504</v>
       </c>
       <c r="Y11" t="n">
         <v>392.5258019886049</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>33.8520949782864</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>155.7526754391568</v>
@@ -23433,13 +23433,13 @@
         <v>166.3495920856427</v>
       </c>
       <c r="H13" t="n">
-        <v>151.9506836387004</v>
+        <v>107.1490617592247</v>
       </c>
       <c r="I13" t="n">
-        <v>125.0897031029502</v>
+        <v>125.0897031029503</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>14.38465326559116</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>112.6835919225485</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>282.5722990436504</v>
       </c>
       <c r="V13" t="n">
         <v>263.319551727384</v>
@@ -23481,7 +23481,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
         <v>220.8809405715231</v>
@@ -23497,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>408.5363925405122</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>315.7755108463297</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>117.8804585990615</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,25 +23542,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>6.535560979117097</v>
+        <v>6.535560979117118</v>
       </c>
       <c r="S14" t="n">
-        <v>153.5746362079504</v>
+        <v>152.9990503735874</v>
       </c>
       <c r="T14" t="n">
-        <v>219.0998921310412</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>261.8764410162782</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23655,28 +23655,28 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C16" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.3495920856427</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>146.8918675148632</v>
       </c>
       <c r="I16" t="n">
-        <v>125.0897031029502</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>14.38465326559115</v>
+        <v>14.38465326559117</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23703,25 +23703,25 @@
         <v>112.6835919225485</v>
       </c>
       <c r="S16" t="n">
-        <v>196.9204403800745</v>
+        <v>196.9204403800746</v>
       </c>
       <c r="T16" t="n">
         <v>232.4136522254854</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5722990436504</v>
       </c>
       <c r="V16" t="n">
-        <v>52.00768885747931</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>315.7755108463297</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>117.8804585990615</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,25 +23779,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>6.535560979117118</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>196.3968871164819</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>253.1556234364382</v>
       </c>
       <c r="V17" t="n">
-        <v>269.1247385227784</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23889,31 +23889,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>95.72778324353659</v>
       </c>
       <c r="D19" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.3495920856427</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>151.9506836387004</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>125.0897031029502</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>14.38465326559117</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>112.6835919225485</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>196.9204403800746</v>
       </c>
       <c r="T19" t="n">
         <v>232.4136522254854</v>
       </c>
       <c r="U19" t="n">
-        <v>33.55196031047663</v>
+        <v>282.5722990436504</v>
       </c>
       <c r="V19" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
         <v>231.7395189948467</v>
@@ -23971,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>315.7755108463297</v>
       </c>
       <c r="I20" t="n">
-        <v>106.2111273570165</v>
+        <v>117.8804585990615</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>153.5746362079504</v>
       </c>
       <c r="T20" t="n">
         <v>219.0998921310412</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.1556234364382</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>309.5298967991814</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24132,25 +24132,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>154.0767819665104</v>
+        <v>120.1978473251318</v>
       </c>
       <c r="E22" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.3495920856427</v>
       </c>
       <c r="H22" t="n">
         <v>151.9506836387004</v>
       </c>
       <c r="I22" t="n">
-        <v>125.0897031029502</v>
+        <v>125.0897031029503</v>
       </c>
       <c r="J22" t="n">
-        <v>14.38465326559115</v>
+        <v>14.38465326559116</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24177,22 +24177,22 @@
         <v>112.6835919225485</v>
       </c>
       <c r="S22" t="n">
-        <v>196.9204403800745</v>
+        <v>196.9204403800746</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>256.6433001508837</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
         <v>220.8809405715231</v>
@@ -24211,7 +24211,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>315.7755108463297</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24259,19 +24259,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.0998921310412</v>
+        <v>28.29889120315323</v>
       </c>
       <c r="U23" t="n">
-        <v>81.29349134496192</v>
+        <v>253.1556234364382</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24366,16 +24366,16 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>1.024701435821839</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
         <v>166.3495920856427</v>
@@ -24414,7 +24414,7 @@
         <v>112.6835919225485</v>
       </c>
       <c r="S25" t="n">
-        <v>196.9204403800746</v>
+        <v>39.51476279127019</v>
       </c>
       <c r="T25" t="n">
         <v>232.4136522254854</v>
@@ -24423,10 +24423,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
         <v>231.7395189948467</v>
@@ -24451,13 +24451,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>408.5363925405122</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>6.535560979117108</v>
+        <v>6.535560979117111</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>153.5746362079504</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.0998921310412</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>119.0783464051628</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>98.82017506317453</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3.507249046217368</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.3495920856427</v>
+        <v>126.054661424623</v>
       </c>
       <c r="H28" t="n">
         <v>151.9506836387004</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>112.6835919225485</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>196.9204403800746</v>
@@ -24657,7 +24657,7 @@
         <v>232.4136522254854</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5722990436504</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>263.319551727384</v>
@@ -24669,7 +24669,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24685,7 +24685,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>343.5186839346567</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24697,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>315.7755108463297</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>117.8804585990615</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24736,7 +24736,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>252.246395811607</v>
+        <v>253.1556234364382</v>
       </c>
       <c r="V29" t="n">
         <v>338.6857412035168</v>
@@ -24745,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>21.38653404357288</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
         <v>155.7526754391568</v>
@@ -24888,10 +24888,10 @@
         <v>112.6835919225485</v>
       </c>
       <c r="S31" t="n">
-        <v>196.9204403800746</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>232.4136522254854</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>282.5722990436504</v>
@@ -24900,10 +24900,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>19.87793512529615</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>252.2463958116076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>302.9943358200641</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>315.7755108463297</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>117.8804585990615</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>6.535560979117111</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>153.5746362079504</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.0998921310412</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.1556234364382</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25080,25 +25080,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>12.74059714132721</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>151.9506836387004</v>
       </c>
       <c r="I34" t="n">
-        <v>25.84621821198334</v>
+        <v>125.0897031029503</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>14.38465326559116</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>112.6835919225485</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>196.9204403800746</v>
       </c>
       <c r="T34" t="n">
         <v>232.4136522254854</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5722990436504</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>231.7395189948467</v>
@@ -25162,7 +25162,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>391.6165743637737</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>117.8804585990615</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,22 +25201,22 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>6.535560979117111</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.0998921310412</v>
       </c>
       <c r="U35" t="n">
-        <v>253.1556234364382</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>241.3843376598879</v>
       </c>
       <c r="X35" t="n">
         <v>385.5580790162737</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
         <v>168.5030667546707</v>
@@ -25320,19 +25320,19 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.3495920856427</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>124.3173791523297</v>
+        <v>125.0897031029503</v>
       </c>
       <c r="J37" t="n">
         <v>14.38465326559116</v>
@@ -25362,13 +25362,13 @@
         <v>112.6835919225485</v>
       </c>
       <c r="S37" t="n">
-        <v>196.9204403800746</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>232.4136522254854</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5722990436504</v>
+        <v>271.8794449908969</v>
       </c>
       <c r="V37" t="n">
         <v>263.319551727384</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>182.4031097297085</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>381.5867174954989</v>
+        <v>292.0051500995907</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25405,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>408.5363925405122</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>117.8804585990615</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25447,13 +25447,13 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>253.1556234364382</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3559385043883</v>
+        <v>18.26487394455631</v>
       </c>
       <c r="C40" t="n">
         <v>168.5030667546707</v>
@@ -25563,13 +25563,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>131.7965242136255</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>151.9506836387004</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>125.0897031029503</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>14.38465326559116</v>
@@ -25605,19 +25605,19 @@
         <v>232.4136522254854</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>282.5722990436504</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25633,22 +25633,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>408.5363925405122</v>
       </c>
       <c r="H41" t="n">
-        <v>176.1461168045609</v>
+        <v>315.7755108463297</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>117.8804585990615</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>153.5746362079504</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>253.1556234364382</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>120.0933963897105</v>
       </c>
     </row>
     <row r="42">
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.3495920856427</v>
       </c>
       <c r="H43" t="n">
-        <v>106.4386918547926</v>
+        <v>151.9506836387004</v>
       </c>
       <c r="I43" t="n">
         <v>125.0897031029503</v>
@@ -25839,22 +25839,22 @@
         <v>196.9204403800746</v>
       </c>
       <c r="T43" t="n">
-        <v>232.4136522254854</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5722990436504</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>134.6241321132921</v>
       </c>
       <c r="X43" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="44">
@@ -25867,25 +25867,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>408.5363925405122</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>117.8804585990615</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,22 +25912,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>6.535560979117101</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>153.5746362079504</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.0998921310412</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>74.14533108022158</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>219.0470930965433</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26022,31 +26022,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>112.505622796305</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.3495920856427</v>
+        <v>89.87199315248792</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>125.0897031029503</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>14.38465326559116</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>112.6835919225485</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>232.4136522254854</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>282.5722990436504</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
         <v>280.4970980481341</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>623135.0224498222</v>
+        <v>623135.022449822</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>623135.0224498219</v>
+        <v>623135.0224498222</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>623135.022449822</v>
+        <v>623135.0224498222</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>623135.022449822</v>
+        <v>623135.0224498222</v>
       </c>
     </row>
     <row r="13">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>577062.9698987417</v>
+        <v>577062.9698987419</v>
       </c>
       <c r="C2" t="n">
         <v>577062.9698987416</v>
@@ -26322,7 +26322,7 @@
         <v>577062.9698987418</v>
       </c>
       <c r="E2" t="n">
-        <v>451449.2418519395</v>
+        <v>451449.2418519394</v>
       </c>
       <c r="F2" t="n">
         <v>451449.2418519394</v>
@@ -26331,31 +26331,31 @@
         <v>451449.2418519394</v>
       </c>
       <c r="H2" t="n">
-        <v>451449.2418519393</v>
+        <v>451449.2418519394</v>
       </c>
       <c r="I2" t="n">
         <v>451449.2418519394</v>
       </c>
       <c r="J2" t="n">
+        <v>451449.2418519394</v>
+      </c>
+      <c r="K2" t="n">
         <v>451449.2418519392</v>
-      </c>
-      <c r="K2" t="n">
-        <v>451449.241851939</v>
       </c>
       <c r="L2" t="n">
         <v>451449.2418519393</v>
       </c>
       <c r="M2" t="n">
-        <v>451449.2418519393</v>
+        <v>451449.2418519395</v>
       </c>
       <c r="N2" t="n">
-        <v>451449.2418519392</v>
+        <v>451449.2418519395</v>
       </c>
       <c r="O2" t="n">
         <v>451449.2418519394</v>
       </c>
       <c r="P2" t="n">
-        <v>451449.2418519394</v>
+        <v>451449.2418519395</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>196816.2325665025</v>
+        <v>196816.2325665024</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>81748.51785715723</v>
+        <v>81748.51785715732</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,16 +26429,16 @@
         <v>87660.58206391445</v>
       </c>
       <c r="F4" t="n">
-        <v>87660.58206391444</v>
+        <v>87660.58206391445</v>
       </c>
       <c r="G4" t="n">
-        <v>87660.58206391444</v>
+        <v>87660.58206391445</v>
       </c>
       <c r="H4" t="n">
         <v>87660.58206391445</v>
       </c>
       <c r="I4" t="n">
-        <v>87660.58206391444</v>
+        <v>87660.58206391445</v>
       </c>
       <c r="J4" t="n">
         <v>87660.58206391445</v>
@@ -26453,10 +26453,10 @@
         <v>87660.58206391445</v>
       </c>
       <c r="N4" t="n">
-        <v>87660.58206391445</v>
+        <v>87660.58206391444</v>
       </c>
       <c r="O4" t="n">
-        <v>87660.58206391445</v>
+        <v>87660.58206391444</v>
       </c>
       <c r="P4" t="n">
         <v>87660.58206391445</v>
@@ -26499,7 +26499,7 @@
         <v>58585.42736276834</v>
       </c>
       <c r="L5" t="n">
-        <v>58585.42736276834</v>
+        <v>58585.42736276835</v>
       </c>
       <c r="M5" t="n">
         <v>58585.42736276834</v>
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>74813.88883127889</v>
+        <v>74813.8888312791</v>
       </c>
       <c r="C6" t="n">
         <v>273009.6948230237</v>
@@ -26530,40 +26530,40 @@
         <v>273009.694823024</v>
       </c>
       <c r="E6" t="n">
-        <v>108386.9998587542</v>
+        <v>107994.4569586079</v>
       </c>
       <c r="F6" t="n">
-        <v>305203.2324252566</v>
+        <v>304810.6895251103</v>
       </c>
       <c r="G6" t="n">
-        <v>305203.2324252566</v>
+        <v>304810.6895251104</v>
       </c>
       <c r="H6" t="n">
-        <v>305203.2324252565</v>
+        <v>304810.6895251104</v>
       </c>
       <c r="I6" t="n">
-        <v>305203.2324252566</v>
+        <v>304810.6895251103</v>
       </c>
       <c r="J6" t="n">
-        <v>150463.798059653</v>
+        <v>150071.2551595069</v>
       </c>
       <c r="K6" t="n">
-        <v>305203.2324252562</v>
+        <v>304810.6895251102</v>
       </c>
       <c r="L6" t="n">
-        <v>305203.2324252565</v>
+        <v>304810.6895251102</v>
       </c>
       <c r="M6" t="n">
-        <v>223454.7145680993</v>
+        <v>223062.1716679531</v>
       </c>
       <c r="N6" t="n">
-        <v>305203.2324252564</v>
+        <v>304810.6895251104</v>
       </c>
       <c r="O6" t="n">
-        <v>305203.2324252566</v>
+        <v>304810.6895251103</v>
       </c>
       <c r="P6" t="n">
-        <v>305203.2324252566</v>
+        <v>304810.6895251104</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>123.0654348207076</v>
+        <v>123.0654348207075</v>
       </c>
       <c r="F3" t="n">
-        <v>123.0654348207076</v>
+        <v>123.0654348207075</v>
       </c>
       <c r="G3" t="n">
-        <v>123.0654348207076</v>
+        <v>123.0654348207075</v>
       </c>
       <c r="H3" t="n">
-        <v>123.0654348207076</v>
+        <v>123.0654348207075</v>
       </c>
       <c r="I3" t="n">
         <v>123.0654348207076</v>
@@ -26801,7 +26801,7 @@
         <v>919.4506724288967</v>
       </c>
       <c r="F4" t="n">
-        <v>919.4506724288967</v>
+        <v>919.4506724288966</v>
       </c>
       <c r="G4" t="n">
         <v>919.4506724288967</v>
@@ -26819,7 +26819,7 @@
         <v>919.4506724288967</v>
       </c>
       <c r="L4" t="n">
-        <v>919.4506724288966</v>
+        <v>919.4506724288968</v>
       </c>
       <c r="M4" t="n">
         <v>919.4506724288967</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>123.0654348207076</v>
+        <v>123.0654348207075</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>328.0385461596017</v>
+        <v>328.0385461596015</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>328.0385461596011</v>
+        <v>328.0385461596014</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>328.0385461596017</v>
+        <v>328.0385461596015</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>388.9965678149911</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27438,7 +27438,7 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>118.3010852892502</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
@@ -27542,16 +27542,16 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>100.9668393102434</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>153.923765528121</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>172.1214267631931</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
@@ -27624,16 +27624,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>137.115291947531</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>127.4977438956416</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
@@ -27675,13 +27675,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>148.0016978186879</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
         <v>154.0767819665104</v>
@@ -27794,10 +27794,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27824,19 +27824,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>86.70496824580715</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>148.1309092551285</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27900,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>172.0932427455719</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -28028,7 +28028,7 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>131.7634811092929</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>240.3576544903973</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>69.20917524689182</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4947354163646533</v>
+        <v>0.494735416364653</v>
       </c>
       <c r="H11" t="n">
-        <v>5.066709082844508</v>
+        <v>5.066709082844504</v>
       </c>
       <c r="I11" t="n">
-        <v>19.07328713939832</v>
+        <v>19.0732871393983</v>
       </c>
       <c r="J11" t="n">
-        <v>41.99005004467953</v>
+        <v>41.99005004467951</v>
       </c>
       <c r="K11" t="n">
-        <v>62.93220021939532</v>
+        <v>62.93220021939528</v>
       </c>
       <c r="L11" t="n">
-        <v>78.07295921796509</v>
+        <v>78.07295921796505</v>
       </c>
       <c r="M11" t="n">
-        <v>86.87121017874</v>
+        <v>86.87121017873994</v>
       </c>
       <c r="N11" t="n">
-        <v>88.27687718048608</v>
+        <v>88.27687718048603</v>
       </c>
       <c r="O11" t="n">
-        <v>83.35735188401004</v>
+        <v>83.35735188401</v>
       </c>
       <c r="P11" t="n">
-        <v>71.14357129250766</v>
+        <v>71.14357129250762</v>
       </c>
       <c r="Q11" t="n">
-        <v>53.4258591939485</v>
+        <v>53.42585919394846</v>
       </c>
       <c r="R11" t="n">
-        <v>31.07742359821618</v>
+        <v>31.07742359821616</v>
       </c>
       <c r="S11" t="n">
-        <v>11.27378330040955</v>
+        <v>11.27378330040954</v>
       </c>
       <c r="T11" t="n">
-        <v>2.165704285136271</v>
+        <v>2.16570428513627</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03957883330917226</v>
+        <v>0.03957883330917224</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2647067843313334</v>
+        <v>0.2647067843313332</v>
       </c>
       <c r="H12" t="n">
-        <v>2.556510259199983</v>
+        <v>2.556510259199982</v>
       </c>
       <c r="I12" t="n">
-        <v>9.113808144741084</v>
+        <v>9.113808144741078</v>
       </c>
       <c r="J12" t="n">
-        <v>25.00898614597041</v>
+        <v>25.00898614597039</v>
       </c>
       <c r="K12" t="n">
-        <v>42.74434069616974</v>
+        <v>42.74434069616971</v>
       </c>
       <c r="L12" t="n">
-        <v>57.47504104527482</v>
+        <v>57.47504104527479</v>
       </c>
       <c r="M12" t="n">
-        <v>67.07066197728564</v>
+        <v>67.0706619772856</v>
       </c>
       <c r="N12" t="n">
-        <v>68.84582282484095</v>
+        <v>68.84582282484091</v>
       </c>
       <c r="O12" t="n">
-        <v>62.9804777614993</v>
+        <v>62.98047776149926</v>
       </c>
       <c r="P12" t="n">
-        <v>50.54738586060348</v>
+        <v>50.54738586060345</v>
       </c>
       <c r="Q12" t="n">
-        <v>33.78958882096108</v>
+        <v>33.78958882096106</v>
       </c>
       <c r="R12" t="n">
-        <v>16.43504052190507</v>
+        <v>16.43504052190506</v>
       </c>
       <c r="S12" t="n">
-        <v>4.916812419487702</v>
+        <v>4.916812419487699</v>
       </c>
       <c r="T12" t="n">
         <v>1.066954100002172</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01741492002179825</v>
+        <v>0.01741492002179824</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.221921275906194</v>
+        <v>0.2219212759061939</v>
       </c>
       <c r="H13" t="n">
-        <v>1.973081889420526</v>
+        <v>1.973081889420525</v>
       </c>
       <c r="I13" t="n">
-        <v>6.673778006342637</v>
+        <v>6.673778006342633</v>
       </c>
       <c r="J13" t="n">
-        <v>15.68983420656792</v>
+        <v>15.68983420656791</v>
       </c>
       <c r="K13" t="n">
-        <v>25.78321732801054</v>
+        <v>25.78321732801052</v>
       </c>
       <c r="L13" t="n">
-        <v>32.99364132881725</v>
+        <v>32.99364132881723</v>
       </c>
       <c r="M13" t="n">
-        <v>34.78716873136821</v>
+        <v>34.78716873136819</v>
       </c>
       <c r="N13" t="n">
-        <v>33.96000761208151</v>
+        <v>33.9600076120815</v>
       </c>
       <c r="O13" t="n">
-        <v>31.36756361626824</v>
+        <v>31.36756361626822</v>
       </c>
       <c r="P13" t="n">
-        <v>26.84036958778185</v>
+        <v>26.84036958778184</v>
       </c>
       <c r="Q13" t="n">
-        <v>18.58288065792685</v>
+        <v>18.58288065792684</v>
       </c>
       <c r="R13" t="n">
-        <v>9.978387551200322</v>
+        <v>9.978387551200315</v>
       </c>
       <c r="S13" t="n">
-        <v>3.86748259920158</v>
+        <v>3.867482599201578</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9482090879628288</v>
+        <v>0.9482090879628282</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0121047968676106</v>
+        <v>0.01210479686761059</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4947354163646533</v>
+        <v>0.494735416364653</v>
       </c>
       <c r="H14" t="n">
-        <v>5.066709082844508</v>
+        <v>5.066709082844504</v>
       </c>
       <c r="I14" t="n">
-        <v>19.07328713939832</v>
+        <v>19.0732871393983</v>
       </c>
       <c r="J14" t="n">
-        <v>41.99005004467953</v>
+        <v>41.99005004467951</v>
       </c>
       <c r="K14" t="n">
-        <v>62.93220021939532</v>
+        <v>62.93220021939528</v>
       </c>
       <c r="L14" t="n">
-        <v>78.07295921796509</v>
+        <v>78.07295921796505</v>
       </c>
       <c r="M14" t="n">
-        <v>86.87121017874</v>
+        <v>86.87121017873994</v>
       </c>
       <c r="N14" t="n">
-        <v>88.27687718048608</v>
+        <v>88.27687718048601</v>
       </c>
       <c r="O14" t="n">
-        <v>83.35735188401004</v>
+        <v>83.35735188400999</v>
       </c>
       <c r="P14" t="n">
-        <v>71.14357129250766</v>
+        <v>71.14357129250762</v>
       </c>
       <c r="Q14" t="n">
-        <v>53.4258591939485</v>
+        <v>53.42585919394845</v>
       </c>
       <c r="R14" t="n">
-        <v>31.07742359821618</v>
+        <v>31.07742359821616</v>
       </c>
       <c r="S14" t="n">
-        <v>11.27378330040955</v>
+        <v>11.27378330040954</v>
       </c>
       <c r="T14" t="n">
-        <v>2.165704285136271</v>
+        <v>2.16570428513627</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03957883330917226</v>
+        <v>0.03957883330917223</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2647067843313334</v>
+        <v>0.2647067843313332</v>
       </c>
       <c r="H15" t="n">
-        <v>2.556510259199983</v>
+        <v>2.556510259199981</v>
       </c>
       <c r="I15" t="n">
-        <v>9.113808144741084</v>
+        <v>9.113808144741077</v>
       </c>
       <c r="J15" t="n">
-        <v>25.00898614597041</v>
+        <v>25.00898614597039</v>
       </c>
       <c r="K15" t="n">
-        <v>42.74434069616974</v>
+        <v>42.74434069616971</v>
       </c>
       <c r="L15" t="n">
-        <v>57.47504104527482</v>
+        <v>57.47504104527478</v>
       </c>
       <c r="M15" t="n">
-        <v>67.07066197728564</v>
+        <v>67.0706619772856</v>
       </c>
       <c r="N15" t="n">
-        <v>68.84582282484095</v>
+        <v>68.84582282484091</v>
       </c>
       <c r="O15" t="n">
-        <v>62.9804777614993</v>
+        <v>62.98047776149925</v>
       </c>
       <c r="P15" t="n">
-        <v>50.54738586060348</v>
+        <v>50.54738586060344</v>
       </c>
       <c r="Q15" t="n">
-        <v>33.78958882096108</v>
+        <v>33.78958882096106</v>
       </c>
       <c r="R15" t="n">
-        <v>16.43504052190507</v>
+        <v>16.43504052190506</v>
       </c>
       <c r="S15" t="n">
-        <v>4.916812419487702</v>
+        <v>4.916812419487698</v>
       </c>
       <c r="T15" t="n">
-        <v>1.066954100002172</v>
+        <v>1.066954100002171</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01741492002179825</v>
+        <v>0.01741492002179824</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.221921275906194</v>
+        <v>0.2219212759061939</v>
       </c>
       <c r="H16" t="n">
-        <v>1.973081889420526</v>
+        <v>1.973081889420525</v>
       </c>
       <c r="I16" t="n">
-        <v>6.673778006342637</v>
+        <v>6.673778006342633</v>
       </c>
       <c r="J16" t="n">
-        <v>15.68983420656792</v>
+        <v>15.68983420656791</v>
       </c>
       <c r="K16" t="n">
-        <v>25.78321732801054</v>
+        <v>25.78321732801052</v>
       </c>
       <c r="L16" t="n">
-        <v>32.99364132881725</v>
+        <v>32.99364132881723</v>
       </c>
       <c r="M16" t="n">
-        <v>34.78716873136821</v>
+        <v>34.78716873136818</v>
       </c>
       <c r="N16" t="n">
-        <v>33.96000761208151</v>
+        <v>33.96000761208149</v>
       </c>
       <c r="O16" t="n">
-        <v>31.36756361626824</v>
+        <v>31.36756361626821</v>
       </c>
       <c r="P16" t="n">
-        <v>26.84036958778185</v>
+        <v>26.84036958778184</v>
       </c>
       <c r="Q16" t="n">
-        <v>18.58288065792685</v>
+        <v>18.58288065792684</v>
       </c>
       <c r="R16" t="n">
-        <v>9.978387551200322</v>
+        <v>9.978387551200315</v>
       </c>
       <c r="S16" t="n">
-        <v>3.86748259920158</v>
+        <v>3.867482599201577</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9482090879628288</v>
+        <v>0.9482090879628281</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0121047968676106</v>
+        <v>0.01210479686761059</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4947354163646533</v>
+        <v>0.494735416364653</v>
       </c>
       <c r="H17" t="n">
-        <v>5.066709082844508</v>
+        <v>5.066709082844504</v>
       </c>
       <c r="I17" t="n">
-        <v>19.07328713939832</v>
+        <v>19.0732871393983</v>
       </c>
       <c r="J17" t="n">
-        <v>41.99005004467953</v>
+        <v>41.99005004467951</v>
       </c>
       <c r="K17" t="n">
-        <v>62.93220021939532</v>
+        <v>62.93220021939528</v>
       </c>
       <c r="L17" t="n">
-        <v>78.07295921796509</v>
+        <v>78.07295921796505</v>
       </c>
       <c r="M17" t="n">
-        <v>86.87121017874</v>
+        <v>86.87121017873994</v>
       </c>
       <c r="N17" t="n">
-        <v>88.27687718048608</v>
+        <v>88.27687718048601</v>
       </c>
       <c r="O17" t="n">
-        <v>83.35735188401004</v>
+        <v>83.35735188400999</v>
       </c>
       <c r="P17" t="n">
-        <v>71.14357129250766</v>
+        <v>71.14357129250762</v>
       </c>
       <c r="Q17" t="n">
-        <v>53.4258591939485</v>
+        <v>53.42585919394845</v>
       </c>
       <c r="R17" t="n">
-        <v>31.07742359821618</v>
+        <v>31.07742359821616</v>
       </c>
       <c r="S17" t="n">
-        <v>11.27378330040955</v>
+        <v>11.27378330040954</v>
       </c>
       <c r="T17" t="n">
-        <v>2.165704285136271</v>
+        <v>2.16570428513627</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03957883330917226</v>
+        <v>0.03957883330917223</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2647067843313334</v>
+        <v>0.2647067843313332</v>
       </c>
       <c r="H18" t="n">
-        <v>2.556510259199983</v>
+        <v>2.556510259199981</v>
       </c>
       <c r="I18" t="n">
-        <v>9.113808144741084</v>
+        <v>9.113808144741077</v>
       </c>
       <c r="J18" t="n">
-        <v>25.00898614597041</v>
+        <v>25.00898614597039</v>
       </c>
       <c r="K18" t="n">
-        <v>42.74434069616974</v>
+        <v>42.74434069616971</v>
       </c>
       <c r="L18" t="n">
-        <v>57.47504104527482</v>
+        <v>57.47504104527478</v>
       </c>
       <c r="M18" t="n">
-        <v>67.07066197728564</v>
+        <v>67.0706619772856</v>
       </c>
       <c r="N18" t="n">
-        <v>68.84582282484095</v>
+        <v>68.84582282484091</v>
       </c>
       <c r="O18" t="n">
-        <v>62.9804777614993</v>
+        <v>62.98047776149925</v>
       </c>
       <c r="P18" t="n">
-        <v>50.54738586060348</v>
+        <v>50.54738586060344</v>
       </c>
       <c r="Q18" t="n">
-        <v>33.78958882096108</v>
+        <v>33.78958882096106</v>
       </c>
       <c r="R18" t="n">
-        <v>16.43504052190507</v>
+        <v>16.43504052190506</v>
       </c>
       <c r="S18" t="n">
-        <v>4.916812419487702</v>
+        <v>4.916812419487698</v>
       </c>
       <c r="T18" t="n">
-        <v>1.066954100002172</v>
+        <v>1.066954100002171</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01741492002179825</v>
+        <v>0.01741492002179824</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.221921275906194</v>
+        <v>0.2219212759061939</v>
       </c>
       <c r="H19" t="n">
-        <v>1.973081889420526</v>
+        <v>1.973081889420525</v>
       </c>
       <c r="I19" t="n">
-        <v>6.673778006342637</v>
+        <v>6.673778006342633</v>
       </c>
       <c r="J19" t="n">
-        <v>15.68983420656792</v>
+        <v>15.68983420656791</v>
       </c>
       <c r="K19" t="n">
-        <v>25.78321732801054</v>
+        <v>25.78321732801052</v>
       </c>
       <c r="L19" t="n">
-        <v>32.99364132881725</v>
+        <v>32.99364132881723</v>
       </c>
       <c r="M19" t="n">
-        <v>34.78716873136821</v>
+        <v>34.78716873136818</v>
       </c>
       <c r="N19" t="n">
-        <v>33.96000761208151</v>
+        <v>33.96000761208149</v>
       </c>
       <c r="O19" t="n">
-        <v>31.36756361626824</v>
+        <v>31.36756361626821</v>
       </c>
       <c r="P19" t="n">
-        <v>26.84036958778185</v>
+        <v>26.84036958778184</v>
       </c>
       <c r="Q19" t="n">
-        <v>18.58288065792685</v>
+        <v>18.58288065792684</v>
       </c>
       <c r="R19" t="n">
-        <v>9.978387551200322</v>
+        <v>9.978387551200315</v>
       </c>
       <c r="S19" t="n">
-        <v>3.86748259920158</v>
+        <v>3.867482599201577</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9482090879628288</v>
+        <v>0.9482090879628281</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0121047968676106</v>
+        <v>0.01210479686761059</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4947354163646534</v>
+        <v>0.494735416364653</v>
       </c>
       <c r="H20" t="n">
-        <v>5.066709082844508</v>
+        <v>5.066709082844504</v>
       </c>
       <c r="I20" t="n">
-        <v>19.07328713939832</v>
+        <v>19.0732871393983</v>
       </c>
       <c r="J20" t="n">
-        <v>41.99005004467954</v>
+        <v>41.99005004467951</v>
       </c>
       <c r="K20" t="n">
-        <v>62.93220021939533</v>
+        <v>62.93220021939528</v>
       </c>
       <c r="L20" t="n">
-        <v>78.07295921796511</v>
+        <v>78.07295921796505</v>
       </c>
       <c r="M20" t="n">
-        <v>86.87121017874</v>
+        <v>86.87121017873994</v>
       </c>
       <c r="N20" t="n">
-        <v>88.27687718048608</v>
+        <v>88.27687718048603</v>
       </c>
       <c r="O20" t="n">
-        <v>83.35735188401006</v>
+        <v>83.35735188401</v>
       </c>
       <c r="P20" t="n">
-        <v>71.14357129250767</v>
+        <v>71.14357129250762</v>
       </c>
       <c r="Q20" t="n">
-        <v>53.4258591939485</v>
+        <v>53.42585919394846</v>
       </c>
       <c r="R20" t="n">
-        <v>31.07742359821619</v>
+        <v>31.07742359821616</v>
       </c>
       <c r="S20" t="n">
-        <v>11.27378330040955</v>
+        <v>11.27378330040954</v>
       </c>
       <c r="T20" t="n">
-        <v>2.165704285136271</v>
+        <v>2.16570428513627</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03957883330917226</v>
+        <v>0.03957883330917224</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2647067843313334</v>
+        <v>0.2647067843313332</v>
       </c>
       <c r="H21" t="n">
-        <v>2.556510259199984</v>
+        <v>2.556510259199982</v>
       </c>
       <c r="I21" t="n">
-        <v>9.113808144741085</v>
+        <v>9.113808144741078</v>
       </c>
       <c r="J21" t="n">
-        <v>25.00898614597041</v>
+        <v>25.00898614597039</v>
       </c>
       <c r="K21" t="n">
-        <v>42.74434069616974</v>
+        <v>42.74434069616971</v>
       </c>
       <c r="L21" t="n">
-        <v>57.47504104527483</v>
+        <v>57.47504104527479</v>
       </c>
       <c r="M21" t="n">
-        <v>67.07066197728564</v>
+        <v>67.0706619772856</v>
       </c>
       <c r="N21" t="n">
-        <v>68.84582282484097</v>
+        <v>68.84582282484091</v>
       </c>
       <c r="O21" t="n">
-        <v>62.98047776149931</v>
+        <v>62.98047776149926</v>
       </c>
       <c r="P21" t="n">
-        <v>50.54738586060348</v>
+        <v>50.54738586060345</v>
       </c>
       <c r="Q21" t="n">
-        <v>33.78958882096109</v>
+        <v>33.78958882096106</v>
       </c>
       <c r="R21" t="n">
-        <v>16.43504052190507</v>
+        <v>16.43504052190506</v>
       </c>
       <c r="S21" t="n">
-        <v>4.916812419487703</v>
+        <v>4.916812419487699</v>
       </c>
       <c r="T21" t="n">
         <v>1.066954100002172</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01741492002179825</v>
+        <v>0.01741492002179824</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.221921275906194</v>
+        <v>0.2219212759061939</v>
       </c>
       <c r="H22" t="n">
-        <v>1.973081889420527</v>
+        <v>1.973081889420525</v>
       </c>
       <c r="I22" t="n">
-        <v>6.673778006342638</v>
+        <v>6.673778006342633</v>
       </c>
       <c r="J22" t="n">
-        <v>15.68983420656792</v>
+        <v>15.68983420656791</v>
       </c>
       <c r="K22" t="n">
-        <v>25.78321732801054</v>
+        <v>25.78321732801052</v>
       </c>
       <c r="L22" t="n">
-        <v>32.99364132881725</v>
+        <v>32.99364132881723</v>
       </c>
       <c r="M22" t="n">
-        <v>34.78716873136821</v>
+        <v>34.78716873136819</v>
       </c>
       <c r="N22" t="n">
-        <v>33.96000761208152</v>
+        <v>33.9600076120815</v>
       </c>
       <c r="O22" t="n">
-        <v>31.36756361626824</v>
+        <v>31.36756361626822</v>
       </c>
       <c r="P22" t="n">
-        <v>26.84036958778186</v>
+        <v>26.84036958778184</v>
       </c>
       <c r="Q22" t="n">
-        <v>18.58288065792685</v>
+        <v>18.58288065792684</v>
       </c>
       <c r="R22" t="n">
-        <v>9.978387551200322</v>
+        <v>9.978387551200315</v>
       </c>
       <c r="S22" t="n">
-        <v>3.86748259920158</v>
+        <v>3.867482599201578</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9482090879628289</v>
+        <v>0.9482090879628282</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0121047968676106</v>
+        <v>0.01210479686761059</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,25 +32700,25 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4947354163646532</v>
+        <v>0.4947354163646531</v>
       </c>
       <c r="H23" t="n">
-        <v>5.066709082844506</v>
+        <v>5.066709082844505</v>
       </c>
       <c r="I23" t="n">
         <v>19.07328713939831</v>
       </c>
       <c r="J23" t="n">
-        <v>41.99005004467952</v>
+        <v>41.99005004467951</v>
       </c>
       <c r="K23" t="n">
-        <v>62.9322002193953</v>
+        <v>62.93220021939529</v>
       </c>
       <c r="L23" t="n">
         <v>78.07295921796506</v>
       </c>
       <c r="M23" t="n">
-        <v>86.87121017873997</v>
+        <v>86.87121017873996</v>
       </c>
       <c r="N23" t="n">
         <v>88.27687718048604</v>
@@ -32730,7 +32730,7 @@
         <v>71.14357129250763</v>
       </c>
       <c r="Q23" t="n">
-        <v>53.42585919394848</v>
+        <v>53.42585919394847</v>
       </c>
       <c r="R23" t="n">
         <v>31.07742359821617</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2647067843313333</v>
+        <v>0.2647067843313332</v>
       </c>
       <c r="H24" t="n">
         <v>2.556510259199982</v>
@@ -32788,13 +32788,13 @@
         <v>9.11380814474108</v>
       </c>
       <c r="J24" t="n">
-        <v>25.0089861459704</v>
+        <v>25.00898614597039</v>
       </c>
       <c r="K24" t="n">
         <v>42.74434069616972</v>
       </c>
       <c r="L24" t="n">
-        <v>57.4750410452748</v>
+        <v>57.47504104527479</v>
       </c>
       <c r="M24" t="n">
         <v>67.07066197728561</v>
@@ -32809,7 +32809,7 @@
         <v>50.54738586060346</v>
       </c>
       <c r="Q24" t="n">
-        <v>33.78958882096107</v>
+        <v>33.78958882096106</v>
       </c>
       <c r="R24" t="n">
         <v>16.43504052190507</v>
@@ -32821,7 +32821,7 @@
         <v>1.066954100002172</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01741492002179825</v>
+        <v>0.01741492002179824</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,7 +32858,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.221921275906194</v>
+        <v>0.2219212759061939</v>
       </c>
       <c r="H25" t="n">
         <v>1.973081889420526</v>
@@ -32873,10 +32873,10 @@
         <v>25.78321732801053</v>
       </c>
       <c r="L25" t="n">
-        <v>32.99364132881724</v>
+        <v>32.99364132881723</v>
       </c>
       <c r="M25" t="n">
-        <v>34.7871687313682</v>
+        <v>34.78716873136819</v>
       </c>
       <c r="N25" t="n">
         <v>33.9600076120815</v>
@@ -32885,19 +32885,19 @@
         <v>31.36756361626822</v>
       </c>
       <c r="P25" t="n">
-        <v>26.84036958778185</v>
+        <v>26.84036958778184</v>
       </c>
       <c r="Q25" t="n">
         <v>18.58288065792684</v>
       </c>
       <c r="R25" t="n">
-        <v>9.978387551200319</v>
+        <v>9.978387551200317</v>
       </c>
       <c r="S25" t="n">
         <v>3.867482599201578</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9482090879628284</v>
+        <v>0.9482090879628283</v>
       </c>
       <c r="U25" t="n">
         <v>0.01210479686761059</v>
@@ -32937,25 +32937,25 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4947354163646532</v>
+        <v>0.4947354163646531</v>
       </c>
       <c r="H26" t="n">
-        <v>5.066709082844506</v>
+        <v>5.066709082844505</v>
       </c>
       <c r="I26" t="n">
         <v>19.07328713939831</v>
       </c>
       <c r="J26" t="n">
-        <v>41.99005004467952</v>
+        <v>41.99005004467951</v>
       </c>
       <c r="K26" t="n">
-        <v>62.9322002193953</v>
+        <v>62.93220021939529</v>
       </c>
       <c r="L26" t="n">
         <v>78.07295921796506</v>
       </c>
       <c r="M26" t="n">
-        <v>86.87121017873997</v>
+        <v>86.87121017873996</v>
       </c>
       <c r="N26" t="n">
         <v>88.27687718048604</v>
@@ -32967,7 +32967,7 @@
         <v>71.14357129250763</v>
       </c>
       <c r="Q26" t="n">
-        <v>53.42585919394848</v>
+        <v>53.42585919394847</v>
       </c>
       <c r="R26" t="n">
         <v>31.07742359821617</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2647067843313333</v>
+        <v>0.2647067843313332</v>
       </c>
       <c r="H27" t="n">
         <v>2.556510259199982</v>
@@ -33025,13 +33025,13 @@
         <v>9.11380814474108</v>
       </c>
       <c r="J27" t="n">
-        <v>25.0089861459704</v>
+        <v>25.00898614597039</v>
       </c>
       <c r="K27" t="n">
         <v>42.74434069616972</v>
       </c>
       <c r="L27" t="n">
-        <v>57.4750410452748</v>
+        <v>57.47504104527479</v>
       </c>
       <c r="M27" t="n">
         <v>67.07066197728561</v>
@@ -33046,7 +33046,7 @@
         <v>50.54738586060346</v>
       </c>
       <c r="Q27" t="n">
-        <v>33.78958882096107</v>
+        <v>33.78958882096106</v>
       </c>
       <c r="R27" t="n">
         <v>16.43504052190507</v>
@@ -33058,7 +33058,7 @@
         <v>1.066954100002172</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01741492002179825</v>
+        <v>0.01741492002179824</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,7 +33095,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.221921275906194</v>
+        <v>0.2219212759061939</v>
       </c>
       <c r="H28" t="n">
         <v>1.973081889420526</v>
@@ -33110,10 +33110,10 @@
         <v>25.78321732801053</v>
       </c>
       <c r="L28" t="n">
-        <v>32.99364132881724</v>
+        <v>32.99364132881723</v>
       </c>
       <c r="M28" t="n">
-        <v>34.7871687313682</v>
+        <v>34.78716873136819</v>
       </c>
       <c r="N28" t="n">
         <v>33.9600076120815</v>
@@ -33122,19 +33122,19 @@
         <v>31.36756361626822</v>
       </c>
       <c r="P28" t="n">
-        <v>26.84036958778185</v>
+        <v>26.84036958778184</v>
       </c>
       <c r="Q28" t="n">
         <v>18.58288065792684</v>
       </c>
       <c r="R28" t="n">
-        <v>9.978387551200319</v>
+        <v>9.978387551200317</v>
       </c>
       <c r="S28" t="n">
         <v>3.867482599201578</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9482090879628284</v>
+        <v>0.9482090879628283</v>
       </c>
       <c r="U28" t="n">
         <v>0.01210479686761059</v>
@@ -33174,25 +33174,25 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4947354163646532</v>
+        <v>0.4947354163646531</v>
       </c>
       <c r="H29" t="n">
-        <v>5.066709082844506</v>
+        <v>5.066709082844505</v>
       </c>
       <c r="I29" t="n">
         <v>19.07328713939831</v>
       </c>
       <c r="J29" t="n">
-        <v>41.99005004467952</v>
+        <v>41.99005004467951</v>
       </c>
       <c r="K29" t="n">
-        <v>62.9322002193953</v>
+        <v>62.93220021939529</v>
       </c>
       <c r="L29" t="n">
         <v>78.07295921796506</v>
       </c>
       <c r="M29" t="n">
-        <v>86.87121017873997</v>
+        <v>86.87121017873996</v>
       </c>
       <c r="N29" t="n">
         <v>88.27687718048604</v>
@@ -33204,7 +33204,7 @@
         <v>71.14357129250763</v>
       </c>
       <c r="Q29" t="n">
-        <v>53.42585919394848</v>
+        <v>53.42585919394847</v>
       </c>
       <c r="R29" t="n">
         <v>31.07742359821617</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2647067843313333</v>
+        <v>0.2647067843313332</v>
       </c>
       <c r="H30" t="n">
         <v>2.556510259199982</v>
@@ -33262,13 +33262,13 @@
         <v>9.11380814474108</v>
       </c>
       <c r="J30" t="n">
-        <v>25.0089861459704</v>
+        <v>25.00898614597039</v>
       </c>
       <c r="K30" t="n">
         <v>42.74434069616972</v>
       </c>
       <c r="L30" t="n">
-        <v>57.4750410452748</v>
+        <v>57.47504104527479</v>
       </c>
       <c r="M30" t="n">
         <v>67.07066197728561</v>
@@ -33283,7 +33283,7 @@
         <v>50.54738586060346</v>
       </c>
       <c r="Q30" t="n">
-        <v>33.78958882096107</v>
+        <v>33.78958882096106</v>
       </c>
       <c r="R30" t="n">
         <v>16.43504052190507</v>
@@ -33295,7 +33295,7 @@
         <v>1.066954100002172</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01741492002179825</v>
+        <v>0.01741492002179824</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,7 +33332,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.221921275906194</v>
+        <v>0.2219212759061939</v>
       </c>
       <c r="H31" t="n">
         <v>1.973081889420526</v>
@@ -33347,10 +33347,10 @@
         <v>25.78321732801053</v>
       </c>
       <c r="L31" t="n">
-        <v>32.99364132881724</v>
+        <v>32.99364132881723</v>
       </c>
       <c r="M31" t="n">
-        <v>34.7871687313682</v>
+        <v>34.78716873136819</v>
       </c>
       <c r="N31" t="n">
         <v>33.9600076120815</v>
@@ -33359,19 +33359,19 @@
         <v>31.36756361626822</v>
       </c>
       <c r="P31" t="n">
-        <v>26.84036958778185</v>
+        <v>26.84036958778184</v>
       </c>
       <c r="Q31" t="n">
         <v>18.58288065792684</v>
       </c>
       <c r="R31" t="n">
-        <v>9.978387551200319</v>
+        <v>9.978387551200317</v>
       </c>
       <c r="S31" t="n">
         <v>3.867482599201578</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9482090879628284</v>
+        <v>0.9482090879628283</v>
       </c>
       <c r="U31" t="n">
         <v>0.01210479686761059</v>
@@ -33411,25 +33411,25 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4947354163646532</v>
+        <v>0.4947354163646531</v>
       </c>
       <c r="H32" t="n">
-        <v>5.066709082844506</v>
+        <v>5.066709082844505</v>
       </c>
       <c r="I32" t="n">
         <v>19.07328713939831</v>
       </c>
       <c r="J32" t="n">
-        <v>41.99005004467952</v>
+        <v>41.99005004467951</v>
       </c>
       <c r="K32" t="n">
-        <v>62.9322002193953</v>
+        <v>62.93220021939529</v>
       </c>
       <c r="L32" t="n">
         <v>78.07295921796506</v>
       </c>
       <c r="M32" t="n">
-        <v>86.87121017873997</v>
+        <v>86.87121017873996</v>
       </c>
       <c r="N32" t="n">
         <v>88.27687718048604</v>
@@ -33441,7 +33441,7 @@
         <v>71.14357129250763</v>
       </c>
       <c r="Q32" t="n">
-        <v>53.42585919394848</v>
+        <v>53.42585919394847</v>
       </c>
       <c r="R32" t="n">
         <v>31.07742359821617</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2647067843313333</v>
+        <v>0.2647067843313332</v>
       </c>
       <c r="H33" t="n">
         <v>2.556510259199982</v>
@@ -33499,13 +33499,13 @@
         <v>9.11380814474108</v>
       </c>
       <c r="J33" t="n">
-        <v>25.0089861459704</v>
+        <v>25.00898614597039</v>
       </c>
       <c r="K33" t="n">
         <v>42.74434069616972</v>
       </c>
       <c r="L33" t="n">
-        <v>57.4750410452748</v>
+        <v>57.47504104527479</v>
       </c>
       <c r="M33" t="n">
         <v>67.07066197728561</v>
@@ -33520,7 +33520,7 @@
         <v>50.54738586060346</v>
       </c>
       <c r="Q33" t="n">
-        <v>33.78958882096107</v>
+        <v>33.78958882096106</v>
       </c>
       <c r="R33" t="n">
         <v>16.43504052190507</v>
@@ -33532,7 +33532,7 @@
         <v>1.066954100002172</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01741492002179825</v>
+        <v>0.01741492002179824</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,7 +33569,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.221921275906194</v>
+        <v>0.2219212759061939</v>
       </c>
       <c r="H34" t="n">
         <v>1.973081889420526</v>
@@ -33584,10 +33584,10 @@
         <v>25.78321732801053</v>
       </c>
       <c r="L34" t="n">
-        <v>32.99364132881724</v>
+        <v>32.99364132881723</v>
       </c>
       <c r="M34" t="n">
-        <v>34.7871687313682</v>
+        <v>34.78716873136819</v>
       </c>
       <c r="N34" t="n">
         <v>33.9600076120815</v>
@@ -33596,19 +33596,19 @@
         <v>31.36756361626822</v>
       </c>
       <c r="P34" t="n">
-        <v>26.84036958778185</v>
+        <v>26.84036958778184</v>
       </c>
       <c r="Q34" t="n">
         <v>18.58288065792684</v>
       </c>
       <c r="R34" t="n">
-        <v>9.978387551200319</v>
+        <v>9.978387551200317</v>
       </c>
       <c r="S34" t="n">
         <v>3.867482599201578</v>
       </c>
       <c r="T34" t="n">
-        <v>0.9482090879628284</v>
+        <v>0.9482090879628283</v>
       </c>
       <c r="U34" t="n">
         <v>0.01210479686761059</v>
@@ -33648,25 +33648,25 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4947354163646532</v>
+        <v>0.4947354163646531</v>
       </c>
       <c r="H35" t="n">
-        <v>5.066709082844506</v>
+        <v>5.066709082844505</v>
       </c>
       <c r="I35" t="n">
         <v>19.07328713939831</v>
       </c>
       <c r="J35" t="n">
-        <v>41.99005004467952</v>
+        <v>41.99005004467951</v>
       </c>
       <c r="K35" t="n">
-        <v>62.9322002193953</v>
+        <v>62.93220021939529</v>
       </c>
       <c r="L35" t="n">
         <v>78.07295921796506</v>
       </c>
       <c r="M35" t="n">
-        <v>86.87121017873997</v>
+        <v>86.87121017873996</v>
       </c>
       <c r="N35" t="n">
         <v>88.27687718048604</v>
@@ -33678,7 +33678,7 @@
         <v>71.14357129250763</v>
       </c>
       <c r="Q35" t="n">
-        <v>53.42585919394848</v>
+        <v>53.42585919394847</v>
       </c>
       <c r="R35" t="n">
         <v>31.07742359821617</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2647067843313333</v>
+        <v>0.2647067843313332</v>
       </c>
       <c r="H36" t="n">
         <v>2.556510259199982</v>
@@ -33736,13 +33736,13 @@
         <v>9.11380814474108</v>
       </c>
       <c r="J36" t="n">
-        <v>25.0089861459704</v>
+        <v>25.00898614597039</v>
       </c>
       <c r="K36" t="n">
         <v>42.74434069616972</v>
       </c>
       <c r="L36" t="n">
-        <v>57.4750410452748</v>
+        <v>57.47504104527479</v>
       </c>
       <c r="M36" t="n">
         <v>67.07066197728561</v>
@@ -33757,7 +33757,7 @@
         <v>50.54738586060346</v>
       </c>
       <c r="Q36" t="n">
-        <v>33.78958882096107</v>
+        <v>33.78958882096106</v>
       </c>
       <c r="R36" t="n">
         <v>16.43504052190507</v>
@@ -33769,7 +33769,7 @@
         <v>1.066954100002172</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01741492002179825</v>
+        <v>0.01741492002179824</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,7 +33806,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.221921275906194</v>
+        <v>0.2219212759061939</v>
       </c>
       <c r="H37" t="n">
         <v>1.973081889420526</v>
@@ -33821,10 +33821,10 @@
         <v>25.78321732801053</v>
       </c>
       <c r="L37" t="n">
-        <v>32.99364132881724</v>
+        <v>32.99364132881723</v>
       </c>
       <c r="M37" t="n">
-        <v>34.7871687313682</v>
+        <v>34.78716873136819</v>
       </c>
       <c r="N37" t="n">
         <v>33.9600076120815</v>
@@ -33833,19 +33833,19 @@
         <v>31.36756361626822</v>
       </c>
       <c r="P37" t="n">
-        <v>26.84036958778185</v>
+        <v>26.84036958778184</v>
       </c>
       <c r="Q37" t="n">
         <v>18.58288065792684</v>
       </c>
       <c r="R37" t="n">
-        <v>9.978387551200319</v>
+        <v>9.978387551200317</v>
       </c>
       <c r="S37" t="n">
         <v>3.867482599201578</v>
       </c>
       <c r="T37" t="n">
-        <v>0.9482090879628284</v>
+        <v>0.9482090879628283</v>
       </c>
       <c r="U37" t="n">
         <v>0.01210479686761059</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4947354163646533</v>
+        <v>0.4947354163646531</v>
       </c>
       <c r="H38" t="n">
-        <v>5.066709082844507</v>
+        <v>5.066709082844505</v>
       </c>
       <c r="I38" t="n">
         <v>19.07328713939831</v>
       </c>
       <c r="J38" t="n">
-        <v>41.99005004467953</v>
+        <v>41.99005004467951</v>
       </c>
       <c r="K38" t="n">
-        <v>62.93220021939531</v>
+        <v>62.93220021939529</v>
       </c>
       <c r="L38" t="n">
-        <v>78.07295921796509</v>
+        <v>78.07295921796506</v>
       </c>
       <c r="M38" t="n">
-        <v>86.87121017873999</v>
+        <v>86.87121017873996</v>
       </c>
       <c r="N38" t="n">
-        <v>88.27687718048607</v>
+        <v>88.27687718048604</v>
       </c>
       <c r="O38" t="n">
-        <v>83.35735188401004</v>
+        <v>83.35735188401001</v>
       </c>
       <c r="P38" t="n">
-        <v>71.14357129250764</v>
+        <v>71.14357129250763</v>
       </c>
       <c r="Q38" t="n">
-        <v>53.42585919394849</v>
+        <v>53.42585919394847</v>
       </c>
       <c r="R38" t="n">
-        <v>31.07742359821618</v>
+        <v>31.07742359821617</v>
       </c>
       <c r="S38" t="n">
-        <v>11.27378330040955</v>
+        <v>11.27378330040954</v>
       </c>
       <c r="T38" t="n">
-        <v>2.165704285136271</v>
+        <v>2.16570428513627</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03957883330917225</v>
+        <v>0.03957883330917224</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2647067843313333</v>
+        <v>0.2647067843313332</v>
       </c>
       <c r="H39" t="n">
-        <v>2.556510259199983</v>
+        <v>2.556510259199982</v>
       </c>
       <c r="I39" t="n">
-        <v>9.113808144741082</v>
+        <v>9.11380814474108</v>
       </c>
       <c r="J39" t="n">
-        <v>25.0089861459704</v>
+        <v>25.00898614597039</v>
       </c>
       <c r="K39" t="n">
-        <v>42.74434069616974</v>
+        <v>42.74434069616972</v>
       </c>
       <c r="L39" t="n">
-        <v>57.47504104527481</v>
+        <v>57.47504104527479</v>
       </c>
       <c r="M39" t="n">
-        <v>67.07066197728562</v>
+        <v>67.07066197728561</v>
       </c>
       <c r="N39" t="n">
-        <v>68.84582282484094</v>
+        <v>68.84582282484092</v>
       </c>
       <c r="O39" t="n">
-        <v>62.98047776149929</v>
+        <v>62.98047776149927</v>
       </c>
       <c r="P39" t="n">
-        <v>50.54738586060347</v>
+        <v>50.54738586060346</v>
       </c>
       <c r="Q39" t="n">
-        <v>33.78958882096108</v>
+        <v>33.78958882096106</v>
       </c>
       <c r="R39" t="n">
         <v>16.43504052190507</v>
       </c>
       <c r="S39" t="n">
-        <v>4.916812419487702</v>
+        <v>4.9168124194877</v>
       </c>
       <c r="T39" t="n">
         <v>1.066954100002172</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01741492002179825</v>
+        <v>0.01741492002179824</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.221921275906194</v>
+        <v>0.2219212759061939</v>
       </c>
       <c r="H40" t="n">
         <v>1.973081889420526</v>
       </c>
       <c r="I40" t="n">
-        <v>6.673778006342636</v>
+        <v>6.673778006342634</v>
       </c>
       <c r="J40" t="n">
         <v>15.68983420656791</v>
@@ -34058,34 +34058,34 @@
         <v>25.78321732801053</v>
       </c>
       <c r="L40" t="n">
-        <v>32.99364132881725</v>
+        <v>32.99364132881723</v>
       </c>
       <c r="M40" t="n">
-        <v>34.7871687313682</v>
+        <v>34.78716873136819</v>
       </c>
       <c r="N40" t="n">
-        <v>33.96000761208151</v>
+        <v>33.9600076120815</v>
       </c>
       <c r="O40" t="n">
-        <v>31.36756361626823</v>
+        <v>31.36756361626822</v>
       </c>
       <c r="P40" t="n">
-        <v>26.84036958778185</v>
+        <v>26.84036958778184</v>
       </c>
       <c r="Q40" t="n">
-        <v>18.58288065792685</v>
+        <v>18.58288065792684</v>
       </c>
       <c r="R40" t="n">
-        <v>9.978387551200321</v>
+        <v>9.978387551200317</v>
       </c>
       <c r="S40" t="n">
-        <v>3.867482599201579</v>
+        <v>3.867482599201578</v>
       </c>
       <c r="T40" t="n">
-        <v>0.9482090879628287</v>
+        <v>0.9482090879628283</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0121047968676106</v>
+        <v>0.01210479686761059</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>463.1002445918322</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>152.0172254979396</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>186.7126870110591</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>591.4121262692951</v>
+        <v>467.8947524111494</v>
       </c>
       <c r="N3" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="O3" t="n">
-        <v>260.7596670179005</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34941,19 +34941,19 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>551.5160606510915</v>
+        <v>316.9893628657432</v>
       </c>
       <c r="N5" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O5" t="n">
-        <v>63.35896009881473</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
         <v>186.7126870110591</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>7.465299698097082</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
@@ -35023,7 +35023,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>591.4121262692951</v>
+        <v>484.6198681696878</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>127.5938369108969</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -35181,7 +35181,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>327.4053600554008</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
@@ -35190,7 +35190,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
         <v>186.7126870110591</v>
@@ -35260,10 +35260,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="N9" t="n">
-        <v>247.8874524576771</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35412,22 +35412,22 @@
         <v>188.1009317707685</v>
       </c>
       <c r="K11" t="n">
-        <v>425.540640651175</v>
+        <v>425.5406406511749</v>
       </c>
       <c r="L11" t="n">
         <v>576.376284186176</v>
       </c>
       <c r="M11" t="n">
-        <v>638.3872708298316</v>
+        <v>638.3872708298314</v>
       </c>
       <c r="N11" t="n">
         <v>621.4195879253972</v>
       </c>
       <c r="O11" t="n">
-        <v>527.8417972297964</v>
+        <v>527.8417972297963</v>
       </c>
       <c r="P11" t="n">
-        <v>422.8481087990954</v>
+        <v>422.8481087990953</v>
       </c>
       <c r="Q11" t="n">
         <v>240.1385462050076</v>
@@ -35488,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>139.2665439436748</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>365.713175102459</v>
       </c>
       <c r="L12" t="n">
-        <v>545.9256328617529</v>
+        <v>545.9256328617528</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>715.7742330150586</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>584.7181369443084</v>
@@ -35509,7 +35509,7 @@
         <v>460.2659401195908</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.7945139689248</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35576,7 +35576,7 @@
         <v>198.7791361508372</v>
       </c>
       <c r="M13" t="n">
-        <v>222.9604801841602</v>
+        <v>222.9604801841601</v>
       </c>
       <c r="N13" t="n">
         <v>219.0000419870403</v>
@@ -35588,7 +35588,7 @@
         <v>147.92740572574</v>
       </c>
       <c r="Q13" t="n">
-        <v>22.03964466807933</v>
+        <v>22.03964466807932</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>188.1009317707685</v>
       </c>
       <c r="K14" t="n">
-        <v>425.540640651175</v>
+        <v>425.5406406511749</v>
       </c>
       <c r="L14" t="n">
         <v>576.376284186176</v>
       </c>
       <c r="M14" t="n">
-        <v>638.3872708298316</v>
+        <v>638.3872708298314</v>
       </c>
       <c r="N14" t="n">
         <v>621.4195879253972</v>
       </c>
       <c r="O14" t="n">
-        <v>527.8417972297964</v>
+        <v>527.8417972297963</v>
       </c>
       <c r="P14" t="n">
-        <v>422.8481087990954</v>
+        <v>422.8481087990953</v>
       </c>
       <c r="Q14" t="n">
         <v>240.1385462050076</v>
@@ -35731,19 +35731,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>530.4520519301933</v>
+        <v>289.5345526718107</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>701.1834393779736</v>
       </c>
       <c r="N15" t="n">
-        <v>731.2478139466178</v>
+        <v>731.2478139466177</v>
       </c>
       <c r="O15" t="n">
         <v>584.7181369443084</v>
       </c>
       <c r="P15" t="n">
-        <v>460.2659401195908</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35813,7 +35813,7 @@
         <v>198.7791361508372</v>
       </c>
       <c r="M16" t="n">
-        <v>222.9604801841602</v>
+        <v>222.9604801841601</v>
       </c>
       <c r="N16" t="n">
         <v>219.0000419870403</v>
@@ -35825,7 +35825,7 @@
         <v>147.92740572574</v>
       </c>
       <c r="Q16" t="n">
-        <v>22.03964466807933</v>
+        <v>22.03964466807932</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,22 +35886,22 @@
         <v>188.1009317707685</v>
       </c>
       <c r="K17" t="n">
-        <v>425.540640651175</v>
+        <v>425.5406406511749</v>
       </c>
       <c r="L17" t="n">
         <v>576.376284186176</v>
       </c>
       <c r="M17" t="n">
-        <v>638.3872708298316</v>
+        <v>638.3872708298314</v>
       </c>
       <c r="N17" t="n">
         <v>621.4195879253972</v>
       </c>
       <c r="O17" t="n">
-        <v>527.8417972297964</v>
+        <v>527.8417972297963</v>
       </c>
       <c r="P17" t="n">
-        <v>422.8481087990954</v>
+        <v>422.8481087990953</v>
       </c>
       <c r="Q17" t="n">
         <v>240.1385462050076</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>365.713175102459</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>545.9256328617528</v>
       </c>
       <c r="M18" t="n">
-        <v>701.1834393779737</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>731.2478139466178</v>
+        <v>79.53905337962769</v>
       </c>
       <c r="O18" t="n">
-        <v>413.9867494965279</v>
+        <v>584.7181369443084</v>
       </c>
       <c r="P18" t="n">
-        <v>460.2659401195908</v>
+        <v>460.2659401195907</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>270.5220045329717</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36050,7 +36050,7 @@
         <v>198.7791361508372</v>
       </c>
       <c r="M19" t="n">
-        <v>222.9604801841602</v>
+        <v>222.9604801841601</v>
       </c>
       <c r="N19" t="n">
         <v>219.0000419870403</v>
@@ -36062,7 +36062,7 @@
         <v>147.92740572574</v>
       </c>
       <c r="Q19" t="n">
-        <v>22.03964466807933</v>
+        <v>22.03964466807932</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,22 +36123,22 @@
         <v>188.1009317707685</v>
       </c>
       <c r="K20" t="n">
-        <v>425.540640651175</v>
+        <v>425.5406406511749</v>
       </c>
       <c r="L20" t="n">
-        <v>576.3762841861761</v>
+        <v>576.376284186176</v>
       </c>
       <c r="M20" t="n">
-        <v>638.3872708298316</v>
+        <v>638.3872708298314</v>
       </c>
       <c r="N20" t="n">
         <v>621.4195879253972</v>
       </c>
       <c r="O20" t="n">
-        <v>527.8417972297964</v>
+        <v>527.8417972297963</v>
       </c>
       <c r="P20" t="n">
-        <v>422.8481087990954</v>
+        <v>422.8481087990953</v>
       </c>
       <c r="Q20" t="n">
         <v>240.1385462050076</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>139.2665439436748</v>
       </c>
       <c r="K21" t="n">
         <v>365.713175102459</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>545.9256328617528</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>64.26483696661556</v>
       </c>
       <c r="N21" t="n">
-        <v>625.4646862413804</v>
+        <v>731.2478139466177</v>
       </c>
       <c r="O21" t="n">
-        <v>584.7181369443084</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>460.2659401195908</v>
       </c>
       <c r="Q21" t="n">
-        <v>270.5220045329717</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36287,7 +36287,7 @@
         <v>198.7791361508372</v>
       </c>
       <c r="M22" t="n">
-        <v>222.9604801841602</v>
+        <v>222.9604801841601</v>
       </c>
       <c r="N22" t="n">
         <v>219.0000419870403</v>
@@ -36299,7 +36299,7 @@
         <v>147.92740572574</v>
       </c>
       <c r="Q22" t="n">
-        <v>22.03964466807933</v>
+        <v>22.03964466807932</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,7 +36360,7 @@
         <v>188.1009317707685</v>
       </c>
       <c r="K23" t="n">
-        <v>425.540640651175</v>
+        <v>425.5406406511749</v>
       </c>
       <c r="L23" t="n">
         <v>576.376284186176</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>139.2665439436748</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>365.713175102459</v>
       </c>
       <c r="L24" t="n">
-        <v>545.9256328617529</v>
+        <v>545.9256328617528</v>
       </c>
       <c r="M24" t="n">
-        <v>701.1834393779736</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>731.2478139466177</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>328.3270567543659</v>
+        <v>584.7181369443084</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>460.2659401195908</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.7945139689248</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36536,7 +36536,7 @@
         <v>147.92740572574</v>
       </c>
       <c r="Q25" t="n">
-        <v>22.03964466807933</v>
+        <v>22.03964466807932</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>188.1009317707685</v>
       </c>
       <c r="K26" t="n">
-        <v>425.540640651175</v>
+        <v>425.5406406511749</v>
       </c>
       <c r="L26" t="n">
         <v>576.376284186176</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>79.53905337962766</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>365.713175102459</v>
       </c>
       <c r="L27" t="n">
-        <v>289.5345526718107</v>
+        <v>545.9256328617528</v>
       </c>
       <c r="M27" t="n">
-        <v>701.1834393779736</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>731.2478139466177</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>584.7181369443084</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>460.2659401195908</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>270.5220045329717</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36773,7 +36773,7 @@
         <v>147.92740572574</v>
       </c>
       <c r="Q28" t="n">
-        <v>22.03964466807933</v>
+        <v>22.03964466807932</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>188.1009317707685</v>
       </c>
       <c r="K29" t="n">
-        <v>425.540640651175</v>
+        <v>425.5406406511749</v>
       </c>
       <c r="L29" t="n">
         <v>576.376284186176</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>79.53905337962766</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>365.713175102459</v>
       </c>
       <c r="L30" t="n">
-        <v>289.5345526718107</v>
+        <v>545.9256328617528</v>
       </c>
       <c r="M30" t="n">
-        <v>701.1834393779736</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>731.2478139466177</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>584.7181369443084</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>460.2659401195908</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>270.5220045329717</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37010,7 +37010,7 @@
         <v>147.92740572574</v>
       </c>
       <c r="Q31" t="n">
-        <v>22.03964466807933</v>
+        <v>22.03964466807932</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>188.1009317707685</v>
       </c>
       <c r="K32" t="n">
-        <v>425.540640651175</v>
+        <v>425.5406406511749</v>
       </c>
       <c r="L32" t="n">
         <v>576.376284186176</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>79.53905337962765</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>365.713175102459</v>
       </c>
       <c r="L33" t="n">
-        <v>545.9256328617529</v>
+        <v>545.9256328617528</v>
       </c>
       <c r="M33" t="n">
-        <v>701.1834393779736</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>474.8567337566753</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>584.7181369443084</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>460.2659401195908</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>270.5220045329717</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37247,7 +37247,7 @@
         <v>147.92740572574</v>
       </c>
       <c r="Q34" t="n">
-        <v>22.03964466807933</v>
+        <v>22.03964466807932</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>188.1009317707685</v>
       </c>
       <c r="K35" t="n">
-        <v>425.540640651175</v>
+        <v>425.5406406511749</v>
       </c>
       <c r="L35" t="n">
         <v>576.376284186176</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>79.53905337962766</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>365.713175102459</v>
       </c>
       <c r="L36" t="n">
-        <v>545.9256328617529</v>
+        <v>545.9256328617528</v>
       </c>
       <c r="M36" t="n">
-        <v>444.7923591880315</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>731.2478139466177</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>584.7181369443084</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>460.2659401195908</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>270.5220045329717</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37484,7 +37484,7 @@
         <v>147.92740572574</v>
       </c>
       <c r="Q37" t="n">
-        <v>22.03964466807933</v>
+        <v>22.03964466807932</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>188.1009317707685</v>
       </c>
       <c r="K38" t="n">
-        <v>425.540640651175</v>
+        <v>425.5406406511749</v>
       </c>
       <c r="L38" t="n">
         <v>576.376284186176</v>
@@ -37557,7 +37557,7 @@
         <v>621.4195879253972</v>
       </c>
       <c r="O38" t="n">
-        <v>527.8417972297964</v>
+        <v>527.8417972297963</v>
       </c>
       <c r="P38" t="n">
         <v>422.8481087990954</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>139.2665439436748</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>365.713175102459</v>
       </c>
       <c r="L39" t="n">
-        <v>545.9256328617529</v>
+        <v>545.9256328617528</v>
       </c>
       <c r="M39" t="n">
-        <v>444.7923591880312</v>
+        <v>701.1834393779736</v>
       </c>
       <c r="N39" t="n">
-        <v>731.2478139466178</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>584.7181369443084</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>460.2659401195908</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>94.3292115352593</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37709,7 +37709,7 @@
         <v>198.7791361508372</v>
       </c>
       <c r="M40" t="n">
-        <v>222.9604801841602</v>
+        <v>222.9604801841601</v>
       </c>
       <c r="N40" t="n">
         <v>219.0000419870403</v>
@@ -37721,7 +37721,7 @@
         <v>147.92740572574</v>
       </c>
       <c r="Q40" t="n">
-        <v>22.03964466807933</v>
+        <v>22.03964466807932</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>188.1009317707686</v>
+        <v>188.1009317707685</v>
       </c>
       <c r="K41" t="n">
         <v>425.540640651175</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>139.2665439436748</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>365.713175102459</v>
       </c>
       <c r="L42" t="n">
-        <v>289.5345526718104</v>
+        <v>545.9256328617529</v>
       </c>
       <c r="M42" t="n">
         <v>701.1834393779736</v>
       </c>
       <c r="N42" t="n">
-        <v>731.2478139466178</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>584.7181369443084</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>460.2659401195908</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>94.3292115352593</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>139.2665439436748</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>365.713175102459</v>
       </c>
       <c r="L45" t="n">
         <v>545.9256328617529</v>
       </c>
       <c r="M45" t="n">
-        <v>701.1834393779736</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>474.8567337566753</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>584.7181369443084</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>460.2659401195908</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.7945139689243</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
